--- a/s60_signal/position-02628-601628.xlsx
+++ b/s60_signal/position-02628-601628.xlsx
@@ -640,7 +640,7 @@
     <t>2021-02-04</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2016-02-26</t>
@@ -28996,7 +28996,7 @@
         <v>208</v>
       </c>
       <c r="E544">
-        <v>-11.09880809817809</v>
+        <v>-11.40877801528057</v>
       </c>
       <c r="F544">
         <v>-1</v>
@@ -29005,10 +29005,10 @@
         <v>0.07820981224787578</v>
       </c>
       <c r="H544">
-        <v>0.07463880809817809</v>
+        <v>0.07544877801528056</v>
       </c>
       <c r="I544">
-        <v>-0.4110041496976784</v>
+        <v>-0.1010342325952038</v>
       </c>
       <c r="J544">
         <v>3.11094398390262</v>
@@ -29020,10 +29020,10 @@
         <v>33.35</v>
       </c>
       <c r="M544">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N544">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O544">
         <v>1</v>
@@ -29046,7 +29046,7 @@
         <v>208</v>
       </c>
       <c r="E545">
-        <v>-13.91133799737284</v>
+        <v>-14.25804633115565</v>
       </c>
       <c r="F545">
         <v>-1</v>
@@ -29055,10 +29055,10 @@
         <v>0.08115296762860061</v>
       </c>
       <c r="H545">
-        <v>0.07745133799737285</v>
+        <v>0.07829804633115567</v>
       </c>
       <c r="I545">
-        <v>-0.5416296312277673</v>
+        <v>-0.1949212974449566</v>
       </c>
       <c r="J545">
         <v>3.315046298793385</v>
@@ -29070,10 +29070,10 @@
         <v>33.35</v>
       </c>
       <c r="M545">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N545">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O545">
         <v>1</v>
@@ -29096,7 +29096,7 @@
         <v>208</v>
       </c>
       <c r="E546">
-        <v>-16.09158022631656</v>
+        <v>-16.46676777644262</v>
       </c>
       <c r="F546">
         <v>-1</v>
@@ -29105,10 +29105,10 @@
         <v>0.08343446929343142</v>
       </c>
       <c r="H546">
-        <v>0.07963158022631656</v>
+        <v>0.08050676777644261</v>
       </c>
       <c r="I546">
-        <v>-0.6428890671148473</v>
+        <v>-0.2677015169887937</v>
       </c>
       <c r="J546">
         <v>3.47326416736695</v>
@@ -29120,10 +29120,10 @@
         <v>33.35</v>
       </c>
       <c r="M546">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N546">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O546">
         <v>1</v>
@@ -29146,7 +29146,7 @@
         <v>208</v>
       </c>
       <c r="E547">
-        <v>-19.06157855545312</v>
+        <v>-19.47556143934148</v>
       </c>
       <c r="F547">
         <v>-1</v>
@@ -29155,10 +29155,10 @@
         <v>0.08654240658705618</v>
       </c>
       <c r="H547">
-        <v>0.08260157855545312</v>
+        <v>0.08351556143934148</v>
       </c>
       <c r="I547">
-        <v>-0.7808280316030469</v>
+        <v>-0.3668451477146917</v>
       </c>
       <c r="J547">
         <v>3.688793799379762</v>
@@ -29170,10 +29170,10 @@
         <v>33.35</v>
       </c>
       <c r="M547">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N547">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O547">
         <v>1</v>
@@ -29196,7 +29196,7 @@
         <v>208</v>
       </c>
       <c r="E548">
-        <v>-21.81653880698781</v>
+        <v>-22.26650810925616</v>
       </c>
       <c r="F548">
         <v>-1</v>
@@ -29205,10 +29205,10 @@
         <v>0.08942531854838637</v>
       </c>
       <c r="H548">
-        <v>0.08535653880698782</v>
+        <v>0.08630650810925616</v>
       </c>
       <c r="I548">
-        <v>-0.9087797413985648</v>
+        <v>-0.4588104391302181</v>
       </c>
       <c r="J548">
         <v>3.888718345935255</v>
@@ -29220,10 +29220,10 @@
         <v>33.35</v>
       </c>
       <c r="M548">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N548">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O548">
         <v>1</v>
@@ -29246,7 +29246,7 @@
         <v>208</v>
       </c>
       <c r="E549">
-        <v>-23.22599366580029</v>
+        <v>-23.69437384430856</v>
       </c>
       <c r="F549">
         <v>-1</v>
@@ -29255,10 +29255,10 @@
         <v>0.09090023430049637</v>
       </c>
       <c r="H549">
-        <v>0.08676599366580028</v>
+        <v>0.08773437384430859</v>
       </c>
       <c r="I549">
-        <v>-0.9742406346960912</v>
+        <v>-0.5058604561878113</v>
       </c>
       <c r="J549">
         <v>3.991000991712648</v>
@@ -29270,10 +29270,10 @@
         <v>33.35</v>
       </c>
       <c r="M549">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N549">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O549">
         <v>1</v>
@@ -29296,7 +29296,7 @@
         <v>208</v>
       </c>
       <c r="E550">
-        <v>-24.44486069996737</v>
+        <v>-24.92916221854459</v>
       </c>
       <c r="F550">
         <v>-1</v>
@@ -29305,10 +29305,10 @@
         <v>0.0921757105437975</v>
       </c>
       <c r="H550">
-        <v>0.08798486069996737</v>
+        <v>0.0889691622185446</v>
       </c>
       <c r="I550">
-        <v>-1.030849843830122</v>
+        <v>-0.5465483252528998</v>
       </c>
       <c r="J550">
         <v>4.07945288098457</v>
@@ -29320,10 +29320,10 @@
         <v>33.35</v>
       </c>
       <c r="M550">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N550">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O550">
         <v>1</v>
@@ -29346,7 +29346,7 @@
         <v>208</v>
       </c>
       <c r="E551">
-        <v>-26.1641371913434</v>
+        <v>-26.67089660313163</v>
       </c>
       <c r="F551">
         <v>-1</v>
@@ -29355,10 +29355,10 @@
         <v>0.09397483732214601</v>
       </c>
       <c r="H551">
-        <v>0.08970413719134339</v>
+        <v>0.09071089660313163</v>
       </c>
       <c r="I551">
-        <v>-1.110700130802602</v>
+        <v>-0.6039407190143677</v>
       </c>
       <c r="J551">
         <v>4.204218954379057</v>
@@ -29370,10 +29370,10 @@
         <v>33.35</v>
       </c>
       <c r="M551">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N551">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O551">
         <v>1</v>
@@ -29396,7 +29396,7 @@
         <v>208</v>
       </c>
       <c r="E552">
-        <v>-28.36138457165884</v>
+        <v>-28.89684532803756</v>
       </c>
       <c r="F552">
         <v>-1</v>
@@ -29405,10 +29405,10 @@
         <v>0.09627413392767205</v>
       </c>
       <c r="H552">
-        <v>0.09190138457165883</v>
+        <v>0.09293684532803756</v>
       </c>
       <c r="I552">
-        <v>-1.212749356013187</v>
+        <v>-0.6772885996344726</v>
       </c>
       <c r="J552">
         <v>4.363670868770599</v>
@@ -29420,10 +29420,10 @@
         <v>33.35</v>
       </c>
       <c r="M552">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N552">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O552">
         <v>1</v>
@@ -29446,7 +29446,7 @@
         <v>208</v>
       </c>
       <c r="E553">
-        <v>-30.70114443050281</v>
+        <v>-31.26716808779531</v>
       </c>
       <c r="F553">
         <v>-1</v>
@@ -29455,10 +29455,10 @@
         <v>0.0987225618786539</v>
       </c>
       <c r="H553">
-        <v>0.09424114443050281</v>
+        <v>0.09530716808779531</v>
       </c>
       <c r="I553">
-        <v>-1.32141744815107</v>
+        <v>-0.7553937908585766</v>
       </c>
       <c r="J553">
         <v>4.533464762736053</v>
@@ -29470,10 +29470,10 @@
         <v>33.35</v>
       </c>
       <c r="M553">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N553">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O553">
         <v>1</v>
@@ -29496,7 +29496,7 @@
         <v>208</v>
       </c>
       <c r="E554">
-        <v>-31.54163945296738</v>
+        <v>-32.11864200024853</v>
       </c>
       <c r="F554">
         <v>-1</v>
@@ -29505,10 +29505,10 @@
         <v>0.09960209295441143</v>
       </c>
       <c r="H554">
-        <v>0.09508163945296738</v>
+        <v>0.09615864200024854</v>
       </c>
       <c r="I554">
-        <v>-1.360453501444052</v>
+        <v>-0.7834509541629018</v>
       </c>
       <c r="J554">
         <v>4.594458596006342</v>
@@ -29520,10 +29520,10 @@
         <v>33.35</v>
       </c>
       <c r="M554">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N554">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O554">
         <v>1</v>
@@ -29546,7 +29546,7 @@
         <v>208</v>
       </c>
       <c r="E555">
-        <v>-32.07618054403633</v>
+        <v>-32.66016548583071</v>
       </c>
       <c r="F555">
         <v>-1</v>
@@ -29555,10 +29555,10 @@
         <v>0.100161460337083</v>
       </c>
       <c r="H555">
-        <v>0.09561618054403632</v>
+        <v>0.09670016548583073</v>
       </c>
       <c r="I555">
-        <v>-1.385279793046671</v>
+        <v>-0.8012948512522939</v>
       </c>
       <c r="J555">
         <v>4.633249676635438</v>
@@ -29570,10 +29570,10 @@
         <v>33.35</v>
       </c>
       <c r="M555">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N555">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O555">
         <v>1</v>
@@ -29596,7 +29596,7 @@
         <v>208</v>
       </c>
       <c r="E556">
-        <v>-32.41132198915774</v>
+        <v>-32.99968468567794</v>
       </c>
       <c r="F556">
         <v>-1</v>
@@ -29605,10 +29605,10 @@
         <v>0.1005121671323407</v>
       </c>
       <c r="H556">
-        <v>0.09595132198915773</v>
+        <v>0.09703968468567795</v>
       </c>
       <c r="I556">
-        <v>-1.400845143182941</v>
+        <v>-0.8124824466627416</v>
       </c>
       <c r="J556">
         <v>4.657570536223348</v>
@@ -29620,10 +29620,10 @@
         <v>33.35</v>
       </c>
       <c r="M556">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N556">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O556">
         <v>1</v>
@@ -29646,7 +29646,7 @@
         <v>208</v>
       </c>
       <c r="E557">
-        <v>-32.90847705955481</v>
+        <v>-33.50333379908455</v>
       </c>
       <c r="F557">
         <v>-1</v>
@@ -29655,10 +29655,10 @@
         <v>0.1010324121334384</v>
       </c>
       <c r="H557">
-        <v>0.09644847705955481</v>
+        <v>0.09754333379908457</v>
       </c>
       <c r="I557">
-        <v>-1.423935073883534</v>
+        <v>-0.8290783343537953</v>
       </c>
       <c r="J557">
         <v>4.69364855294302</v>
@@ -29670,10 +29670,10 @@
         <v>33.35</v>
       </c>
       <c r="M557">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N557">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O557">
         <v>1</v>
@@ -29696,7 +29696,7 @@
         <v>208</v>
       </c>
       <c r="E558">
-        <v>-32.77072876835581</v>
+        <v>-33.36378618332707</v>
       </c>
       <c r="F558">
         <v>-1</v>
@@ -29705,10 +29705,10 @@
         <v>0.1008882662438092</v>
       </c>
       <c r="H558">
-        <v>0.09631072876835581</v>
+        <v>0.09740378618332707</v>
       </c>
       <c r="I558">
-        <v>-1.417537475453393</v>
+        <v>-0.8244800604821307</v>
       </c>
       <c r="J558">
         <v>4.683652305395922</v>
@@ -29720,10 +29720,10 @@
         <v>33.35</v>
       </c>
       <c r="M558">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N558">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O558">
         <v>1</v>
@@ -29746,7 +29746,7 @@
         <v>208</v>
       </c>
       <c r="E559">
-        <v>-31.87655021596293</v>
+        <v>-32.45792750470556</v>
       </c>
       <c r="F559">
         <v>-1</v>
@@ -29755,10 +29755,10 @@
         <v>0.09995255835371447</v>
       </c>
       <c r="H559">
-        <v>0.09541655021596293</v>
+        <v>0.09649792750470557</v>
       </c>
       <c r="I559">
-        <v>-1.376008137751544</v>
+        <v>-0.7946308490089109</v>
       </c>
       <c r="J559">
         <v>4.618762715236787</v>
@@ -29770,10 +29770,10 @@
         <v>33.35</v>
       </c>
       <c r="M559">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N559">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O559">
         <v>1</v>
@@ -29796,7 +29796,7 @@
         <v>208</v>
       </c>
       <c r="E560">
-        <v>-29.96434931839864</v>
+        <v>-30.52074865637483</v>
       </c>
       <c r="F560">
         <v>-1</v>
@@ -29805,10 +29805,10 @@
         <v>0.09795154696453616</v>
       </c>
       <c r="H560">
-        <v>0.09350434931839864</v>
+        <v>0.09456074865637484</v>
       </c>
       <c r="I560">
-        <v>-1.287197646137525</v>
+        <v>-0.7307983081613401</v>
       </c>
       <c r="J560">
         <v>4.479996322089887</v>
@@ -29820,10 +29820,10 @@
         <v>33.35</v>
       </c>
       <c r="M560">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N560">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O560">
         <v>1</v>
@@ -29846,7 +29846,7 @@
         <v>208</v>
       </c>
       <c r="E561">
-        <v>-30.18961511969689</v>
+        <v>-30.7489569717684</v>
       </c>
       <c r="F561">
         <v>-1</v>
@@ -29855,10 +29855,10 @@
         <v>0.09818727503817337</v>
       </c>
       <c r="H561">
-        <v>0.09372961511969689</v>
+        <v>0.09478895697176841</v>
       </c>
       <c r="I561">
-        <v>-1.297659918476487</v>
+        <v>-0.7383180664049718</v>
       </c>
       <c r="J561">
         <v>4.496343622619513</v>
@@ -29870,10 +29870,10 @@
         <v>33.35</v>
       </c>
       <c r="M561">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N561">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O561">
         <v>1</v>
@@ -29896,7 +29896,7 @@
         <v>208</v>
       </c>
       <c r="E562">
-        <v>-30.22266017300907</v>
+        <v>-30.78243367309192</v>
       </c>
       <c r="F562">
         <v>-1</v>
@@ -29905,10 +29905,10 @@
         <v>0.09822185483997033</v>
       </c>
       <c r="H562">
-        <v>0.09376266017300906</v>
+        <v>0.09482243367309193</v>
       </c>
       <c r="I562">
-        <v>-1.299194666961238</v>
+        <v>-0.7394211668783868</v>
       </c>
       <c r="J562">
         <v>4.498741667126929</v>
@@ -29920,10 +29920,10 @@
         <v>33.35</v>
       </c>
       <c r="M562">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N562">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O562">
         <v>1</v>
@@ -29946,7 +29946,7 @@
         <v>208</v>
       </c>
       <c r="E563">
-        <v>-30.57580157033772</v>
+        <v>-31.14018794788931</v>
       </c>
       <c r="F563">
         <v>-1</v>
@@ -29955,10 +29955,10 @@
         <v>0.09859139757941003</v>
       </c>
       <c r="H563">
-        <v>0.09411580157033772</v>
+        <v>0.09518018794788932</v>
       </c>
       <c r="I563">
-        <v>-1.315596009072298</v>
+        <v>-0.7512096315207089</v>
       </c>
       <c r="J563">
         <v>4.524368764175452</v>
@@ -29970,10 +29970,10 @@
         <v>33.35</v>
       </c>
       <c r="M563">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N563">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O563">
         <v>1</v>
@@ -29996,7 +29996,7 @@
         <v>208</v>
       </c>
       <c r="E564">
-        <v>-30.98933038944647</v>
+        <v>-31.55911844968598</v>
       </c>
       <c r="F564">
         <v>-1</v>
@@ -30005,10 +30005,10 @@
         <v>0.09902413238140914</v>
       </c>
       <c r="H564">
-        <v>0.09452933038944647</v>
+        <v>0.09559911844968599</v>
       </c>
       <c r="I564">
-        <v>-1.334801991962681</v>
+        <v>-0.7650139317231748</v>
       </c>
       <c r="J564">
         <v>4.554378112441689</v>
@@ -30020,10 +30020,10 @@
         <v>33.35</v>
       </c>
       <c r="M564">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N564">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O564">
         <v>1</v>
@@ -30046,7 +30046,7 @@
         <v>208</v>
       </c>
       <c r="E565">
-        <v>-32.38642858283256</v>
+        <v>-32.97446611149075</v>
       </c>
       <c r="F565">
         <v>-1</v>
@@ -30055,10 +30055,10 @@
         <v>0.1004861175736172</v>
       </c>
       <c r="H565">
-        <v>0.09592642858283255</v>
+        <v>0.09701446611149075</v>
       </c>
       <c r="I565">
-        <v>-1.399688990784675</v>
+        <v>-0.8116514621264912</v>
       </c>
       <c r="J565">
         <v>4.655764048101057</v>
@@ -30070,10 +30070,10 @@
         <v>33.35</v>
       </c>
       <c r="M565">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N565">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O565">
         <v>1</v>
@@ -30096,7 +30096,7 @@
         <v>208</v>
       </c>
       <c r="E566">
-        <v>-34.15597880540685</v>
+        <v>-34.76713092332943</v>
       </c>
       <c r="F566">
         <v>-1</v>
@@ -30105,10 +30105,10 @@
         <v>0.1023378530024649</v>
       </c>
       <c r="H566">
-        <v>0.09769597880540684</v>
+        <v>0.09880713092332942</v>
       </c>
       <c r="I566">
-        <v>-1.481874197058083</v>
+        <v>-0.8707220791355041</v>
       </c>
       <c r="J566">
         <v>4.784178432903254</v>
@@ -30120,10 +30120,10 @@
         <v>33.35</v>
       </c>
       <c r="M566">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N566">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O566">
         <v>1</v>
@@ -30146,7 +30146,7 @@
         <v>208</v>
       </c>
       <c r="E567">
-        <v>-35.02670101407807</v>
+        <v>-35.6492268618672</v>
       </c>
       <c r="F567">
         <v>-1</v>
@@ -30155,10 +30155,10 @@
         <v>0.1032490151395505</v>
       </c>
       <c r="H567">
-        <v>0.09856670101407806</v>
+        <v>0.09968922686186721</v>
       </c>
       <c r="I567">
-        <v>-1.522314125472427</v>
+        <v>-0.8997882776832995</v>
       </c>
       <c r="J567">
         <v>4.847365821050658</v>
@@ -30170,10 +30170,10 @@
         <v>33.35</v>
       </c>
       <c r="M567">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N567">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O567">
         <v>1</v>
@@ -30196,7 +30196,7 @@
         <v>208</v>
       </c>
       <c r="E568">
-        <v>-36.21672927818376</v>
+        <v>-36.8547997622239</v>
       </c>
       <c r="F568">
         <v>-1</v>
@@ -30205,10 +30205,10 @@
         <v>0.1044943132214376</v>
       </c>
       <c r="H568">
-        <v>0.09975672927818376</v>
+        <v>0.1008947997622239</v>
       </c>
       <c r="I568">
-        <v>-1.577583943253806</v>
+        <v>-0.9395134592136714</v>
       </c>
       <c r="J568">
         <v>4.93372491133409</v>
@@ -30220,10 +30220,10 @@
         <v>33.35</v>
       </c>
       <c r="M568">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N568">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O568">
         <v>1</v>
@@ -30246,7 +30246,7 @@
         <v>208</v>
       </c>
       <c r="E569">
-        <v>-37.20168520808222</v>
+        <v>-37.85262158961014</v>
       </c>
       <c r="F569">
         <v>-1</v>
@@ -30255,10 +30255,10 @@
         <v>0.105525014564626</v>
       </c>
       <c r="H569">
-        <v>0.1007416852080822</v>
+        <v>0.1018926215896101</v>
       </c>
       <c r="I569">
-        <v>-1.623329356543728</v>
+        <v>-0.9723929750158078</v>
       </c>
       <c r="J569">
         <v>5.005202119599581</v>
@@ -30270,10 +30270,10 @@
         <v>33.35</v>
       </c>
       <c r="M569">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N569">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O569">
         <v>1</v>
@@ -30296,7 +30296,7 @@
         <v>208</v>
       </c>
       <c r="E570">
-        <v>-38.00275088245736</v>
+        <v>-38.6641511116912</v>
       </c>
       <c r="F570">
         <v>-1</v>
@@ -30305,10 +30305,10 @@
         <v>0.1063632850308444</v>
       </c>
       <c r="H570">
-        <v>0.1015427508824574</v>
+        <v>0.1027041511116912</v>
       </c>
       <c r="I570">
-        <v>-1.660534148386994</v>
+        <v>-0.9991339191531523</v>
       </c>
       <c r="J570">
         <v>5.063334606854671</v>
@@ -30320,10 +30320,10 @@
         <v>33.35</v>
       </c>
       <c r="M570">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N570">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O570">
         <v>1</v>
@@ -30346,7 +30346,7 @@
         <v>208</v>
       </c>
       <c r="E571">
-        <v>-38.31081051359889</v>
+        <v>-38.97623474382008</v>
       </c>
       <c r="F571">
         <v>-1</v>
@@ -30355,10 +30355,10 @@
         <v>0.106685652221052</v>
       </c>
       <c r="H571">
-        <v>0.1018508105135989</v>
+        <v>0.1030162347438201</v>
       </c>
       <c r="I571">
-        <v>-1.674841707453076</v>
+        <v>-1.009417477231892</v>
       </c>
       <c r="J571">
         <v>5.085690167895421</v>
@@ -30370,10 +30370,10 @@
         <v>33.35</v>
       </c>
       <c r="M571">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N571">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O571">
         <v>1</v>
@@ -30396,7 +30396,7 @@
         <v>208</v>
       </c>
       <c r="E572">
-        <v>-38.96560256911908</v>
+        <v>-39.63957996116853</v>
       </c>
       <c r="F572">
         <v>-1</v>
@@ -30405,10 +30405,10 @@
         <v>0.1073708555186283</v>
       </c>
       <c r="H572">
-        <v>0.1025056025691191</v>
+        <v>0.1036795799611685</v>
       </c>
       <c r="I572">
-        <v>-1.705252949509152</v>
+        <v>-1.031275557459708</v>
       </c>
       <c r="J572">
         <v>5.133207733608061</v>
@@ -30420,10 +30420,10 @@
         <v>33.35</v>
       </c>
       <c r="M572">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N572">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O572">
         <v>1</v>
@@ -30446,7 +30446,7 @@
         <v>208</v>
       </c>
       <c r="E573">
-        <v>-38.70742049229216</v>
+        <v>-39.37802540438306</v>
       </c>
       <c r="F573">
         <v>-1</v>
@@ -30455,10 +30455,10 @@
         <v>0.1071006824019487</v>
       </c>
       <c r="H573">
-        <v>0.1022474204922922</v>
+        <v>0.1034180254043831</v>
       </c>
       <c r="I573">
-        <v>-1.693261909656535</v>
+        <v>-1.022656997565633</v>
       </c>
       <c r="J573">
         <v>5.114471733838328</v>
@@ -30470,10 +30470,10 @@
         <v>33.35</v>
       </c>
       <c r="M573">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N573">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O573">
         <v>1</v>
@@ -30496,7 +30496,7 @@
         <v>208</v>
       </c>
       <c r="E574">
-        <v>-38.1361826375143</v>
+        <v>-38.79932580694481</v>
       </c>
       <c r="F574">
         <v>-1</v>
@@ -30505,10 +30505,10 @@
         <v>0.1065029139066006</v>
       </c>
       <c r="H574">
-        <v>0.1016761826375143</v>
+        <v>0.1028393258069448</v>
       </c>
       <c r="I574">
-        <v>-1.666731269086291</v>
+        <v>-1.003588099655772</v>
       </c>
       <c r="J574">
         <v>5.073017607947336</v>
@@ -30520,10 +30520,10 @@
         <v>33.35</v>
       </c>
       <c r="M574">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N574">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O574">
         <v>1</v>
@@ -30546,7 +30546,7 @@
         <v>208</v>
       </c>
       <c r="E575">
-        <v>-37.37688416602994</v>
+        <v>-38.03010906805356</v>
       </c>
       <c r="F575">
         <v>-1</v>
@@ -30555,10 +30555,10 @@
         <v>0.1057083504843361</v>
       </c>
       <c r="H575">
-        <v>0.1009168841660299</v>
+        <v>0.1020701090680536</v>
       </c>
       <c r="I575">
-        <v>-1.631466318306174</v>
+        <v>-0.9782414162825575</v>
       </c>
       <c r="J575">
         <v>5.017916122353406</v>
@@ -30570,10 +30570,10 @@
         <v>33.35</v>
       </c>
       <c r="M575">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N575">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O575">
         <v>1</v>
@@ -30596,7 +30596,7 @@
         <v>208</v>
       </c>
       <c r="E576">
-        <v>-36.48533320501238</v>
+        <v>-37.12691230348134</v>
       </c>
       <c r="F576">
         <v>-1</v>
@@ -30605,10 +30605,10 @@
         <v>0.1047753922217909</v>
       </c>
       <c r="H576">
-        <v>0.1000253332050124</v>
+        <v>0.1011669123034814</v>
       </c>
       <c r="I576">
-        <v>-1.590059016778504</v>
+        <v>-0.9484799183095447</v>
       </c>
       <c r="J576">
         <v>4.953217213716428</v>
@@ -30620,10 +30620,10 @@
         <v>33.35</v>
       </c>
       <c r="M576">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N576">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O576">
         <v>1</v>
@@ -30646,7 +30646,7 @@
         <v>208</v>
       </c>
       <c r="E577">
-        <v>-34.05241947439065</v>
+        <v>-34.66221885794582</v>
       </c>
       <c r="F577">
         <v>-1</v>
@@ -30655,10 +30655,10 @@
         <v>0.1022294839492535</v>
       </c>
       <c r="H577">
-        <v>0.09759241947439064</v>
+        <v>0.09870221885794583</v>
       </c>
       <c r="I577">
-        <v>-1.477064474862836</v>
+        <v>-0.8672650913076581</v>
       </c>
       <c r="J577">
         <v>4.776663241973196</v>
@@ -30670,10 +30670,10 @@
         <v>33.35</v>
       </c>
       <c r="M577">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N577">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O577">
         <v>1</v>
@@ -30696,7 +30696,7 @@
         <v>208</v>
       </c>
       <c r="E578">
-        <v>-31.84861483369755</v>
+        <v>-32.42962721904338</v>
       </c>
       <c r="F578">
         <v>-1</v>
@@ -30705,10 +30705,10 @@
         <v>0.0999233255371494</v>
       </c>
       <c r="H578">
-        <v>0.09538861483369755</v>
+        <v>0.0964696272190434</v>
       </c>
       <c r="I578">
-        <v>-1.37471070345185</v>
+        <v>-0.7936983181060242</v>
       </c>
       <c r="J578">
         <v>4.616735474143509</v>
@@ -30720,10 +30720,10 @@
         <v>33.35</v>
       </c>
       <c r="M578">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N578">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O578">
         <v>1</v>
@@ -30746,7 +30746,7 @@
         <v>208</v>
       </c>
       <c r="E579">
-        <v>-31.89776957694914</v>
+        <v>-32.47942404166981</v>
       </c>
       <c r="F579">
         <v>-1</v>
@@ -30755,10 +30755,10 @@
         <v>0.09997476322928929</v>
       </c>
       <c r="H579">
-        <v>0.09543776957694913</v>
+        <v>0.09651942404166983</v>
       </c>
       <c r="I579">
-        <v>-1.376993652340158</v>
+        <v>-0.79533918761949</v>
       </c>
       <c r="J579">
         <v>4.620302581781505</v>
@@ -30770,10 +30770,10 @@
         <v>33.35</v>
       </c>
       <c r="M579">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N579">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O579">
         <v>1</v>
@@ -30796,7 +30796,7 @@
         <v>208</v>
       </c>
       <c r="E580">
-        <v>-29.86243745134152</v>
+        <v>-30.41750557479881</v>
       </c>
       <c r="F580">
         <v>-1</v>
@@ -30805,10 +30805,10 @@
         <v>0.09784490189030078</v>
       </c>
       <c r="H580">
-        <v>0.09340243745134151</v>
+        <v>0.09445750557479882</v>
       </c>
       <c r="I580">
-        <v>-1.282464438959263</v>
+        <v>-0.72739631550197</v>
       </c>
       <c r="J580">
         <v>4.47260068587384</v>
@@ -30820,10 +30820,10 @@
         <v>33.35</v>
       </c>
       <c r="M580">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N580">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O580">
         <v>1</v>
@@ -30846,7 +30846,7 @@
         <v>208</v>
       </c>
       <c r="E581">
-        <v>-28.34245356703135</v>
+        <v>-28.87766703887937</v>
       </c>
       <c r="F581">
         <v>-1</v>
@@ -30855,10 +30855,10 @@
         <v>0.09625432368915762</v>
       </c>
       <c r="H581">
-        <v>0.09188245356703136</v>
+        <v>0.09291766703887937</v>
       </c>
       <c r="I581">
-        <v>-1.211870122126275</v>
+        <v>-0.6766566502782538</v>
       </c>
       <c r="J581">
         <v>4.362297065822304</v>
@@ -30870,10 +30870,10 @@
         <v>33.35</v>
       </c>
       <c r="M581">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N581">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O581">
         <v>1</v>
@@ -30896,7 +30896,7 @@
         <v>208</v>
       </c>
       <c r="E582">
-        <v>-28.19654882154886</v>
+        <v>-28.72985642589421</v>
       </c>
       <c r="F582">
         <v>-1</v>
@@ -30905,10 +30905,10 @@
         <v>0.09610164252588786</v>
       </c>
       <c r="H582">
-        <v>0.09173654882154887</v>
+        <v>0.09276985642589421</v>
       </c>
       <c r="I582">
-        <v>-1.205093704338989</v>
+        <v>-0.6717860999936462</v>
       </c>
       <c r="J582">
         <v>4.351708913029671</v>
@@ -30920,10 +30920,10 @@
         <v>33.35</v>
       </c>
       <c r="M582">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N582">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O582">
         <v>1</v>
@@ -30946,7 +30946,7 @@
         <v>208</v>
       </c>
       <c r="E583">
-        <v>-30.75931115918899</v>
+        <v>-31.32609461409857</v>
       </c>
       <c r="F583">
         <v>-1</v>
@@ -30955,10 +30955,10 @@
         <v>0.09878343010997861</v>
       </c>
       <c r="H583">
-        <v>0.09429931115918899</v>
+        <v>0.09536609461409859</v>
       </c>
       <c r="I583">
-        <v>-1.324118950789622</v>
+        <v>-0.7573354958800422</v>
       </c>
       <c r="J583">
         <v>4.53768586060878</v>
@@ -30970,10 +30970,10 @@
         <v>33.35</v>
       </c>
       <c r="M583">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N583">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O583">
         <v>1</v>
@@ -30996,7 +30996,7 @@
         <v>208</v>
       </c>
       <c r="E584">
-        <v>-33.08996310628307</v>
+        <v>-33.68719049083538</v>
       </c>
       <c r="F584">
         <v>-1</v>
@@ -31005,10 +31005,10 @@
         <v>0.1012223271402468</v>
       </c>
       <c r="H584">
-        <v>0.09662996310628306</v>
+        <v>0.09772719049083541</v>
       </c>
       <c r="I584">
-        <v>-1.432364033963786</v>
+        <v>-0.8351366494114671</v>
       </c>
       <c r="J584">
         <v>4.706818803068437</v>
@@ -31020,10 +31020,10 @@
         <v>33.35</v>
       </c>
       <c r="M584">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N584">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O584">
         <v>1</v>
@@ -31046,7 +31046,7 @@
         <v>208</v>
       </c>
       <c r="E585">
-        <v>-32.85445090497352</v>
+        <v>-33.44860193275982</v>
       </c>
       <c r="F585">
         <v>-1</v>
@@ -31055,10 +31055,10 @@
         <v>0.100975876781547</v>
       </c>
       <c r="H585">
-        <v>0.09639445090497351</v>
+        <v>0.09748860193275982</v>
       </c>
       <c r="I585">
-        <v>-1.421425876573515</v>
+        <v>-0.8272748487872121</v>
       </c>
       <c r="J585">
         <v>4.689727932146119</v>
@@ -31070,10 +31070,10 @@
         <v>33.35</v>
       </c>
       <c r="M585">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N585">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O585">
         <v>1</v>
@@ -31096,7 +31096,7 @@
         <v>208</v>
       </c>
       <c r="E586">
-        <v>-33.73358428618759</v>
+        <v>-34.33921891401878</v>
       </c>
       <c r="F586">
         <v>-1</v>
@@ -31105,10 +31105,10 @@
         <v>0.1018958407406985</v>
       </c>
       <c r="H586">
-        <v>0.09727358428618758</v>
+        <v>0.0983792189140188</v>
       </c>
       <c r="I586">
-        <v>-1.462256454510886</v>
+        <v>-0.8566218266796994</v>
       </c>
       <c r="J586">
         <v>4.753525710173265</v>
@@ -31120,10 +31120,10 @@
         <v>33.35</v>
       </c>
       <c r="M586">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N586">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O586">
         <v>1</v>
@@ -31146,7 +31146,7 @@
         <v>208</v>
       </c>
       <c r="E587">
-        <v>-34.31962821087886</v>
+        <v>-34.9329179843156</v>
       </c>
       <c r="F587">
         <v>-1</v>
@@ -31155,10 +31155,10 @@
         <v>0.1025091029608761</v>
       </c>
       <c r="H587">
-        <v>0.09785962821087886</v>
+        <v>0.09897291798431562</v>
       </c>
       <c r="I587">
-        <v>-1.489474749997278</v>
+        <v>-0.8761849765605376</v>
       </c>
       <c r="J587">
         <v>4.796054296870745</v>
@@ -31170,10 +31170,10 @@
         <v>33.35</v>
       </c>
       <c r="M587">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N587">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O587">
         <v>1</v>
@@ -31196,7 +31196,7 @@
         <v>208</v>
       </c>
       <c r="E588">
-        <v>-34.92343060860225</v>
+        <v>-35.54460749608761</v>
       </c>
       <c r="F588">
         <v>-1</v>
@@ -31205,10 +31205,10 @@
         <v>0.1031409484307725</v>
       </c>
       <c r="H588">
-        <v>0.09846343060860224</v>
+        <v>0.09958460749608762</v>
       </c>
       <c r="I588">
-        <v>-1.517517822170213</v>
+        <v>-0.8963409346848437</v>
       </c>
       <c r="J588">
         <v>4.839871597140947</v>
@@ -31220,10 +31220,10 @@
         <v>33.35</v>
       </c>
       <c r="M588">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N588">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O588">
         <v>1</v>
@@ -31246,7 +31246,7 @@
         <v>208</v>
       </c>
       <c r="E589">
-        <v>-35.76247098825377</v>
+        <v>-36.394607764588</v>
       </c>
       <c r="F589">
         <v>-1</v>
@@ -31255,10 +31255,10 @@
         <v>0.1040189573041088</v>
       </c>
       <c r="H589">
-        <v>0.09930247098825376</v>
+        <v>0.100434607764588</v>
       </c>
       <c r="I589">
-        <v>-1.556486315855032</v>
+        <v>-0.9243495395208043</v>
       </c>
       <c r="J589">
         <v>4.900759868523496</v>
@@ -31270,10 +31270,10 @@
         <v>33.35</v>
       </c>
       <c r="M589">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N589">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O589">
         <v>1</v>
@@ -31296,7 +31296,7 @@
         <v>208</v>
       </c>
       <c r="E590">
-        <v>-36.60323823309868</v>
+        <v>-37.24635745530171</v>
       </c>
       <c r="F590">
         <v>-1</v>
@@ -31305,10 +31305,10 @@
         <v>0.1048987732453761</v>
       </c>
       <c r="H590">
-        <v>0.1001432382330987</v>
+        <v>0.1012863574553017</v>
       </c>
       <c r="I590">
-        <v>-1.595535012277445</v>
+        <v>-0.9524157900744115</v>
       </c>
       <c r="J590">
         <v>4.961773456683503</v>
@@ -31320,10 +31320,10 @@
         <v>33.35</v>
       </c>
       <c r="M590">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N590">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O590">
         <v>1</v>
@@ -31346,7 +31346,7 @@
         <v>208</v>
       </c>
       <c r="E591">
-        <v>-37.86872559307918</v>
+        <v>-38.5283751291281</v>
       </c>
       <c r="F591">
         <v>-1</v>
@@ -31355,10 +31355,10 @@
         <v>0.1062230350545865</v>
       </c>
       <c r="H591">
-        <v>0.1014087255930792</v>
+        <v>0.1025683751291281</v>
       </c>
       <c r="I591">
-        <v>-1.654309461507303</v>
+        <v>-0.9946599254583788</v>
       </c>
       <c r="J591">
         <v>5.053608533605165</v>
@@ -31370,10 +31370,10 @@
         <v>33.35</v>
       </c>
       <c r="M591">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N591">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O591">
         <v>1</v>
@@ -31396,7 +31396,7 @@
         <v>208</v>
       </c>
       <c r="E592">
-        <v>-39.19446686504087</v>
+        <v>-39.87143377619524</v>
       </c>
       <c r="F592">
         <v>-1</v>
@@ -31405,10 +31405,10 @@
         <v>0.107610349215812</v>
       </c>
       <c r="H592">
-        <v>0.1027344668650409</v>
+        <v>0.1039114337761953</v>
       </c>
       <c r="I592">
-        <v>-1.715882350771132</v>
+        <v>-1.038915439616758</v>
       </c>
       <c r="J592">
         <v>5.149816173079889</v>
@@ -31420,10 +31420,10 @@
         <v>33.35</v>
       </c>
       <c r="M592">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N592">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O592">
         <v>1</v>
@@ -31446,7 +31446,7 @@
         <v>208</v>
       </c>
       <c r="E593">
-        <v>-39.71355771307222</v>
+        <v>-40.39730520134167</v>
       </c>
       <c r="F593">
         <v>-1</v>
@@ -31455,10 +31455,10 @@
         <v>0.1081535487824747</v>
       </c>
       <c r="H593">
-        <v>0.1032535577130722</v>
+        <v>0.1044373052013417</v>
       </c>
       <c r="I593">
-        <v>-1.739991069402485</v>
+        <v>-1.056243581133032</v>
       </c>
       <c r="J593">
         <v>5.18748604594138</v>
@@ -31470,10 +31470,10 @@
         <v>33.35</v>
       </c>
       <c r="M593">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N593">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O593">
         <v>1</v>
@@ -31496,7 +31496,7 @@
         <v>208</v>
       </c>
       <c r="E594">
-        <v>-40.72454809836485</v>
+        <v>-41.42150155683405</v>
       </c>
       <c r="F594">
         <v>-1</v>
@@ -31505,10 +31505,10 @@
         <v>0.1092114937284776</v>
       </c>
       <c r="H594">
-        <v>0.1042645480983648</v>
+        <v>0.1054615015568341</v>
       </c>
       <c r="I594">
-        <v>-1.786945630112733</v>
+        <v>-1.08999217164353</v>
       </c>
       <c r="J594">
         <v>5.26085254705115</v>
@@ -31520,10 +31520,10 @@
         <v>33.35</v>
       </c>
       <c r="M594">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N594">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O594">
         <v>1</v>
@@ -31546,7 +31546,7 @@
         <v>208</v>
       </c>
       <c r="E595">
-        <v>-42.05809022866787</v>
+        <v>-42.77246296024699</v>
       </c>
       <c r="F595">
         <v>-1</v>
@@ -31555,10 +31555,10 @@
         <v>0.1106069710520603</v>
       </c>
       <c r="H595">
-        <v>0.1055980902286679</v>
+        <v>0.106812462960247</v>
       </c>
       <c r="I595">
-        <v>-1.848880823392413</v>
+        <v>-1.134508091813288</v>
       </c>
       <c r="J595">
         <v>5.357626286550643</v>
@@ -31570,10 +31570,10 @@
         <v>33.35</v>
       </c>
       <c r="M595">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N595">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O595">
         <v>1</v>
@@ -31596,7 +31596,7 @@
         <v>208</v>
       </c>
       <c r="E596">
-        <v>-43.0086104788666</v>
+        <v>-43.73539929499113</v>
       </c>
       <c r="F596">
         <v>-1</v>
@@ -31605,10 +31605,10 @@
         <v>0.1116016373806427</v>
       </c>
       <c r="H596">
-        <v>0.1065486104788666</v>
+        <v>0.1077753992949911</v>
       </c>
       <c r="I596">
-        <v>-1.893026901776089</v>
+        <v>-1.166238085651557</v>
       </c>
       <c r="J596">
         <v>5.426604534025152</v>
@@ -31620,10 +31620,10 @@
         <v>33.35</v>
       </c>
       <c r="M596">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N596">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O596">
         <v>1</v>
@@ -31646,7 +31646,7 @@
         <v>208</v>
       </c>
       <c r="E597">
-        <v>-42.98658966947502</v>
+        <v>-43.71309084077441</v>
       </c>
       <c r="F597">
         <v>-1</v>
@@ -31655,10 +31655,10 @@
         <v>0.111578593834095</v>
       </c>
       <c r="H597">
-        <v>0.106526589669475</v>
+        <v>0.1077530908407744</v>
       </c>
       <c r="I597">
-        <v>-1.892004164620026</v>
+        <v>-1.165502993320644</v>
       </c>
       <c r="J597">
         <v>5.425006507218797</v>
@@ -31670,10 +31670,10 @@
         <v>33.35</v>
       </c>
       <c r="M597">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N597">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O597">
         <v>1</v>
@@ -31696,7 +31696,7 @@
         <v>208</v>
       </c>
       <c r="E598">
-        <v>-42.82822562543025</v>
+        <v>-43.55265818076969</v>
       </c>
       <c r="F598">
         <v>-1</v>
@@ -31705,10 +31705,10 @@
         <v>0.1114128747110816</v>
       </c>
       <c r="H598">
-        <v>0.1063682256254302</v>
+        <v>0.1075926581807697</v>
       </c>
       <c r="I598">
-        <v>-1.884649085651326</v>
+        <v>-1.160216530311885</v>
       </c>
       <c r="J598">
         <v>5.413514196330206</v>
@@ -31720,10 +31720,10 @@
         <v>33.35</v>
       </c>
       <c r="M598">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N598">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O598">
         <v>1</v>
@@ -31746,7 +31746,7 @@
         <v>208</v>
       </c>
       <c r="E599">
-        <v>-42.41860019975341</v>
+        <v>-43.13768206012755</v>
       </c>
       <c r="F599">
         <v>-1</v>
@@ -31755,10 +31755,10 @@
         <v>0.1109842245921948</v>
       </c>
       <c r="H599">
-        <v>0.1059586001997534</v>
+        <v>0.1071776820601276</v>
       </c>
       <c r="I599">
-        <v>-1.865624392441369</v>
+        <v>-1.14654253206723</v>
       </c>
       <c r="J599">
         <v>5.383788113189652</v>
@@ -31770,10 +31770,10 @@
         <v>33.35</v>
       </c>
       <c r="M599">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N599">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O599">
         <v>1</v>
@@ -31796,7 +31796,7 @@
         <v>208</v>
       </c>
       <c r="E600">
-        <v>-42.21778646408579</v>
+        <v>-42.93424521325381</v>
       </c>
       <c r="F600">
         <v>-1</v>
@@ -31805,10 +31805,10 @@
         <v>0.1107740842389054</v>
       </c>
       <c r="H600">
-        <v>0.1057577864640858</v>
+        <v>0.1069742452132538</v>
       </c>
       <c r="I600">
-        <v>-1.856297774819645</v>
+        <v>-1.139839025651625</v>
       </c>
       <c r="J600">
         <v>5.369215273155717</v>
@@ -31820,10 +31820,10 @@
         <v>33.35</v>
       </c>
       <c r="M600">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N600">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O600">
         <v>1</v>
@@ -31846,7 +31846,7 @@
         <v>208</v>
       </c>
       <c r="E601">
-        <v>-41.55679690701132</v>
+        <v>-42.2646215400492</v>
       </c>
       <c r="F601">
         <v>-1</v>
@@ -31855,10 +31855,10 @@
         <v>0.1100823956022571</v>
       </c>
       <c r="H601">
-        <v>0.1050967969070113</v>
+        <v>0.1063046215400492</v>
       </c>
       <c r="I601">
-        <v>-1.825598695245809</v>
+        <v>-1.117774062207928</v>
       </c>
       <c r="J601">
         <v>5.321247961321576</v>
@@ -31870,10 +31870,10 @@
         <v>33.35</v>
       </c>
       <c r="M601">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N601">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O601">
         <v>1</v>
@@ -31896,7 +31896,7 @@
         <v>208</v>
       </c>
       <c r="E602">
-        <v>-41.9717415500882</v>
+        <v>-42.68498635988616</v>
       </c>
       <c r="F602">
         <v>-1</v>
@@ -31905,10 +31905,10 @@
         <v>0.1105166119849254</v>
       </c>
       <c r="H602">
-        <v>0.1055117415500882</v>
+        <v>0.1067249863598862</v>
       </c>
       <c r="I602">
-        <v>-1.844870434837183</v>
+        <v>-1.13162562503922</v>
       </c>
       <c r="J602">
         <v>5.351360054433106</v>
@@ -31920,10 +31920,10 @@
         <v>33.35</v>
       </c>
       <c r="M602">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N602">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O602">
         <v>1</v>
@@ -31946,7 +31946,7 @@
         <v>208</v>
       </c>
       <c r="E603">
-        <v>-44.40859267924937</v>
+        <v>-45.15366863587237</v>
       </c>
       <c r="F603">
         <v>-1</v>
@@ -31955,10 +31955,10 @@
         <v>0.11306664052502</v>
       </c>
       <c r="H603">
-        <v>0.1079485926792494</v>
+        <v>0.1091936686358724</v>
       </c>
       <c r="I603">
-        <v>-1.958047845770658</v>
+        <v>-1.212971889147653</v>
       </c>
       <c r="J603">
         <v>5.528199759016645</v>
@@ -31970,10 +31970,10 @@
         <v>33.35</v>
       </c>
       <c r="M603">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N603">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O603">
         <v>1</v>
@@ -31996,7 +31996,7 @@
         <v>208</v>
       </c>
       <c r="E604">
-        <v>-43.74773691697263</v>
+        <v>-44.4841805051479</v>
       </c>
       <c r="F604">
         <v>-1</v>
@@ -32005,10 +32005,10 @@
         <v>0.1123750918971513</v>
       </c>
       <c r="H604">
-        <v>0.1072877369169726</v>
+        <v>0.1085241805051479</v>
       </c>
       <c r="I604">
-        <v>-1.927354980178698</v>
+        <v>-1.190911392003429</v>
       </c>
       <c r="J604">
         <v>5.480242156529219</v>
@@ -32020,10 +32020,10 @@
         <v>33.35</v>
       </c>
       <c r="M604">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N604">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O604">
         <v>1</v>
@@ -32046,7 +32046,7 @@
         <v>208</v>
       </c>
       <c r="E605">
-        <v>-43.67270109420932</v>
+        <v>-44.40816453375631</v>
       </c>
       <c r="F605">
         <v>-1</v>
@@ -32055,10 +32055,10 @@
         <v>0.1122965711014875</v>
       </c>
       <c r="H605">
-        <v>0.1072127010942093</v>
+        <v>0.1084481645337563</v>
       </c>
       <c r="I605">
-        <v>-1.923870007278218</v>
+        <v>-1.188406567731221</v>
       </c>
       <c r="J605">
         <v>5.474796886372228</v>
@@ -32070,10 +32070,10 @@
         <v>33.35</v>
       </c>
       <c r="M605">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N605">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O605">
         <v>1</v>
@@ -32096,7 +32096,7 @@
         <v>208</v>
       </c>
       <c r="E606">
-        <v>-43.94863194258461</v>
+        <v>-44.6876997038085</v>
       </c>
       <c r="F606">
         <v>-1</v>
@@ -32105,10 +32105,10 @@
         <v>0.1125853173158251</v>
       </c>
       <c r="H606">
-        <v>0.1074886319425846</v>
+        <v>0.1087276997038085</v>
       </c>
       <c r="I606">
-        <v>-1.9366853732405</v>
+        <v>-1.197617612016614</v>
       </c>
       <c r="J606">
         <v>5.494820895688288</v>
@@ -32120,10 +32120,10 @@
         <v>33.35</v>
       </c>
       <c r="M606">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N606">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O606">
         <v>1</v>
@@ -32146,7 +32146,7 @@
         <v>208</v>
       </c>
       <c r="E607">
-        <v>-43.79130737587958</v>
+        <v>-44.52832009922199</v>
       </c>
       <c r="F607">
         <v>-1</v>
@@ -32155,10 +32155,10 @@
         <v>0.1124206859477637</v>
       </c>
       <c r="H607">
-        <v>0.1073313073758796</v>
+        <v>0.108568320099222</v>
       </c>
       <c r="I607">
-        <v>-1.929378571884094</v>
+        <v>-1.192365848541684</v>
       </c>
       <c r="J607">
         <v>5.48340401856891</v>
@@ -32170,10 +32170,10 @@
         <v>33.35</v>
       </c>
       <c r="M607">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N607">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O607">
         <v>1</v>
@@ -32196,7 +32196,7 @@
         <v>208</v>
       </c>
       <c r="E608">
-        <v>-43.44837081012106</v>
+        <v>-44.18090395568142</v>
       </c>
       <c r="F608">
         <v>-1</v>
@@ -32205,10 +32205,10 @@
         <v>0.1120618219943357</v>
       </c>
       <c r="H608">
-        <v>0.1069883708101211</v>
+        <v>0.1082209039556814</v>
       </c>
       <c r="I608">
-        <v>-1.913451184214615</v>
+        <v>-1.180918038654255</v>
       </c>
       <c r="J608">
         <v>5.458517475335346</v>
@@ -32220,10 +32220,10 @@
         <v>33.35</v>
       </c>
       <c r="M608">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N608">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O608">
         <v>1</v>
@@ -32246,7 +32246,7 @@
         <v>208</v>
       </c>
       <c r="E609">
-        <v>-42.46160822304091</v>
+        <v>-43.18125187181794</v>
       </c>
       <c r="F609">
         <v>-1</v>
@@ -32255,10 +32255,10 @@
         <v>0.1110292300853592</v>
       </c>
       <c r="H609">
-        <v>0.1060016082230409</v>
+        <v>0.1072212518718179</v>
       </c>
       <c r="I609">
-        <v>-1.867621862318295</v>
+        <v>-1.147978213541265</v>
       </c>
       <c r="J609">
         <v>5.386909159872345</v>
@@ -32270,10 +32270,10 @@
         <v>33.35</v>
       </c>
       <c r="M609">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N609">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O609">
         <v>1</v>
@@ -32296,7 +32296,7 @@
         <v>208</v>
       </c>
       <c r="E610">
-        <v>-41.38136324362345</v>
+        <v>-42.08689629034713</v>
       </c>
       <c r="F610">
         <v>-1</v>
@@ -32305,10 +32305,10 @@
         <v>0.1098988140764187</v>
       </c>
       <c r="H610">
-        <v>0.1049213632436234</v>
+        <v>0.1061268962903471</v>
       </c>
       <c r="I610">
-        <v>-1.817450832795281</v>
+        <v>-1.111917786071601</v>
       </c>
       <c r="J610">
         <v>5.308516926242631</v>
@@ -32320,10 +32320,10 @@
         <v>33.35</v>
       </c>
       <c r="M610">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N610">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O610">
         <v>1</v>
@@ -32346,7 +32346,7 @@
         <v>208</v>
       </c>
       <c r="E611">
-        <v>-40.36503305172204</v>
+        <v>-41.05729037750651</v>
       </c>
       <c r="F611">
         <v>-1</v>
@@ -32355,10 +32355,10 @@
         <v>0.1088352813211779</v>
       </c>
       <c r="H611">
-        <v>0.103905033051722</v>
+        <v>0.1050972903775065</v>
       </c>
       <c r="I611">
-        <v>-1.770248269455884</v>
+        <v>-1.077990943671409</v>
       </c>
       <c r="J611">
         <v>5.234762921024822</v>
@@ -32370,10 +32370,10 @@
         <v>33.35</v>
       </c>
       <c r="M611">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N611">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O611">
         <v>1</v>
@@ -32396,7 +32396,7 @@
         <v>208</v>
       </c>
       <c r="E612">
-        <v>-39.37724975026555</v>
+        <v>-40.05660424627772</v>
       </c>
       <c r="F612">
         <v>-1</v>
@@ -32405,10 +32405,10 @@
         <v>0.1078016212916422</v>
       </c>
       <c r="H612">
-        <v>0.1029172497502655</v>
+        <v>0.1040966042462777</v>
       </c>
       <c r="I612">
-        <v>-1.72437154137662</v>
+        <v>-1.045017045364446</v>
       </c>
       <c r="J612">
         <v>5.163080533400983</v>
@@ -32420,10 +32420,10 @@
         <v>33.35</v>
       </c>
       <c r="M612">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N612">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O612">
         <v>1</v>
@@ -32446,7 +32446,7 @@
         <v>208</v>
       </c>
       <c r="E613">
-        <v>-38.80364237479768</v>
+        <v>-39.4755041765004</v>
       </c>
       <c r="F613">
         <v>-1</v>
@@ -32455,10 +32455,10 @@
         <v>0.1072013732252963</v>
       </c>
       <c r="H613">
-        <v>0.1023436423747977</v>
+        <v>0.1035155041765004</v>
       </c>
       <c r="I613">
-        <v>-1.697730850498594</v>
+        <v>-1.025869048795869</v>
       </c>
       <c r="J613">
         <v>5.121454453904041</v>
@@ -32470,10 +32470,10 @@
         <v>33.35</v>
       </c>
       <c r="M613">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N613">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O613">
         <v>1</v>
@@ -32496,7 +32496,7 @@
         <v>208</v>
       </c>
       <c r="E614">
-        <v>-38.22734461756902</v>
+        <v>-38.89167858209459</v>
       </c>
       <c r="F614">
         <v>-1</v>
@@ -32505,10 +32505,10 @@
         <v>0.1065983098247711</v>
       </c>
       <c r="H614">
-        <v>0.101767344617569</v>
+        <v>0.1029316785820946</v>
       </c>
       <c r="I614">
-        <v>-1.670965207202038</v>
+        <v>-1.006631242676463</v>
       </c>
       <c r="J614">
         <v>5.079633136253194</v>
@@ -32520,10 +32520,10 @@
         <v>33.35</v>
       </c>
       <c r="M614">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N614">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O614">
         <v>1</v>
@@ -32546,7 +32546,7 @@
         <v>208</v>
       </c>
       <c r="E615">
-        <v>-37.92522743170878</v>
+        <v>-38.58561501789945</v>
       </c>
       <c r="F615">
         <v>-1</v>
@@ -32555,10 +32555,10 @@
         <v>0.1062821610714978</v>
       </c>
       <c r="H615">
-        <v>0.1014652274317088</v>
+        <v>0.1026256150178995</v>
       </c>
       <c r="I615">
-        <v>-1.656933639789081</v>
+        <v>-0.9965460535984079</v>
       </c>
       <c r="J615">
         <v>5.057708812170448</v>
@@ -32570,10 +32570,10 @@
         <v>33.35</v>
       </c>
       <c r="M615">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N615">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O615">
         <v>1</v>
@@ -32596,7 +32596,7 @@
         <v>208</v>
       </c>
       <c r="E616">
-        <v>-37.03964804695779</v>
+        <v>-37.68846783276712</v>
       </c>
       <c r="F616">
         <v>-1</v>
@@ -32605,10 +32605,10 @@
         <v>0.1053554517298354</v>
       </c>
       <c r="H616">
-        <v>0.1005796480469578</v>
+        <v>0.1017284678327671</v>
       </c>
       <c r="I616">
-        <v>-1.615803682877576</v>
+        <v>-0.9669838970682463</v>
       </c>
       <c r="J616">
         <v>4.993443254496212</v>
@@ -32620,10 +32620,10 @@
         <v>33.35</v>
       </c>
       <c r="M616">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N616">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O616">
         <v>1</v>
@@ -32646,7 +32646,7 @@
         <v>208</v>
       </c>
       <c r="E617">
-        <v>-36.19658584192737</v>
+        <v>-36.83439320415864</v>
       </c>
       <c r="F617">
         <v>-1</v>
@@ -32655,10 +32655,10 @@
         <v>0.1044732342409719</v>
       </c>
       <c r="H617">
-        <v>0.09973658584192736</v>
+        <v>0.1008743932041587</v>
       </c>
       <c r="I617">
-        <v>-1.576648399044508</v>
+        <v>-0.938841036813244</v>
       </c>
       <c r="J617">
         <v>4.932263123507066</v>
@@ -32670,10 +32670,10 @@
         <v>33.35</v>
       </c>
       <c r="M617">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N617">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O617">
         <v>1</v>
@@ -32696,7 +32696,7 @@
         <v>208</v>
       </c>
       <c r="E618">
-        <v>-35.25000097830946</v>
+        <v>-35.87544366162555</v>
       </c>
       <c r="F618">
         <v>-1</v>
@@ -32705,10 +32705,10 @@
         <v>0.1034826860745445</v>
       </c>
       <c r="H618">
-        <v>0.09879000097830945</v>
+        <v>0.09991544366162555</v>
       </c>
       <c r="I618">
-        <v>-1.532685096234992</v>
+        <v>-0.9072424129189045</v>
       </c>
       <c r="J618">
         <v>4.86357046286716</v>
@@ -32720,10 +32720,10 @@
         <v>33.35</v>
       </c>
       <c r="M618">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N618">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O618">
         <v>1</v>
@@ -32746,7 +32746,7 @@
         <v>208</v>
       </c>
       <c r="E619">
-        <v>-34.42486379803533</v>
+        <v>-35.03952820178326</v>
       </c>
       <c r="F619">
         <v>-1</v>
@@ -32755,10 +32755,10 @@
         <v>0.1026192261224724</v>
       </c>
       <c r="H619">
-        <v>0.09796486379803533</v>
+        <v>0.09907952820178327</v>
       </c>
       <c r="I619">
-        <v>-1.494362324437056</v>
+        <v>-0.8796979206891251</v>
       </c>
       <c r="J619">
         <v>4.803691131932898</v>
@@ -32770,10 +32770,10 @@
         <v>33.35</v>
       </c>
       <c r="M619">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N619">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O619">
         <v>1</v>
@@ -32796,7 +32796,7 @@
         <v>208</v>
       </c>
       <c r="E620">
-        <v>-33.50086108247443</v>
+        <v>-34.10345578456771</v>
       </c>
       <c r="F620">
         <v>-1</v>
@@ -32805,10 +32805,10 @@
         <v>0.1016523089121394</v>
       </c>
       <c r="H620">
-        <v>0.09704086108247442</v>
+        <v>0.09814345578456772</v>
       </c>
       <c r="I620">
-        <v>-1.451447829664993</v>
+        <v>-0.848853127571715</v>
       </c>
       <c r="J620">
         <v>4.736637233851555</v>
@@ -32820,10 +32820,10 @@
         <v>33.35</v>
       </c>
       <c r="M620">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N620">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O620">
         <v>1</v>
@@ -32846,7 +32846,7 @@
         <v>208</v>
       </c>
       <c r="E621">
-        <v>-14.37567288669903</v>
+        <v>-14.72844655285331</v>
       </c>
       <c r="F621">
         <v>-1</v>
@@ -32855,10 +32855,10 @@
         <v>0.07916449684926347</v>
       </c>
       <c r="H621">
-        <v>0.07791567288669903</v>
+        <v>0.07876844655285331</v>
       </c>
       <c r="I621">
-        <v>0.3111760374355619</v>
+        <v>0.6639497035898358</v>
       </c>
       <c r="J621">
         <v>3.348742589745939</v>
@@ -32870,10 +32870,10 @@
         <v>32.55</v>
       </c>
       <c r="M621">
-        <v>13.78</v>
+        <v>13.96</v>
       </c>
       <c r="N621">
-        <v>31.77</v>
+        <v>32.02</v>
       </c>
       <c r="O621">
         <v>1</v>

--- a/s60_signal/position-02628-601628.xlsx
+++ b/s60_signal/position-02628-601628.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="488">
   <si>
     <t>trade_time</t>
   </si>
@@ -292,12 +292,12 @@
     <t>2020-12-01</t>
   </si>
   <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
     <t>2020-11-18</t>
   </si>
   <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
     <t>2021-01-15</t>
   </si>
   <si>
@@ -646,7 +646,7 @@
     <t>2021-02-04</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2016-02-26</t>
@@ -1835,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P623"/>
+  <dimension ref="A1:P624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28793,10 +28793,10 @@
         <v>1</v>
       </c>
       <c r="B540" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C540">
-        <v>44.98156832800709</v>
+        <v>44.73168779512381</v>
       </c>
       <c r="D540" t="s">
         <v>208</v>
@@ -28808,22 +28808,22 @@
         <v>-1</v>
       </c>
       <c r="G540">
-        <v>0.04121843167199292</v>
+        <v>0.04086831220487618</v>
       </c>
       <c r="H540">
         <v>0.03349923162899241</v>
       </c>
       <c r="I540">
-        <v>8.0407999569995</v>
+        <v>7.790919424116225</v>
       </c>
       <c r="J540">
         <v>-0.104415556493179</v>
       </c>
       <c r="K540">
-        <v>18.02</v>
+        <v>18.5</v>
       </c>
       <c r="L540">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="M540">
         <v>16.48</v>
@@ -28840,40 +28840,40 @@
     </row>
     <row r="541" spans="1:16">
       <c r="A541" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B541" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C541">
-        <v>42.5821201676108</v>
+        <v>44.98156832800709</v>
       </c>
       <c r="D541" t="s">
         <v>208</v>
       </c>
       <c r="E541">
-        <v>35.00220779790144</v>
+        <v>36.94076837100759</v>
       </c>
       <c r="F541">
         <v>-1</v>
       </c>
       <c r="G541">
-        <v>0.0430578798323892</v>
+        <v>0.04121843167199292</v>
       </c>
       <c r="H541">
-        <v>0.03543779220209856</v>
+        <v>0.03349923162899241</v>
       </c>
       <c r="I541">
-        <v>7.579912369709362</v>
+        <v>8.0407999569995</v>
       </c>
       <c r="J541">
-        <v>0.01321554624384431</v>
+        <v>-0.104415556493179</v>
       </c>
       <c r="K541">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="L541">
-        <v>42.82</v>
+        <v>43.1</v>
       </c>
       <c r="M541">
         <v>16.48</v>
@@ -28885,18 +28885,18 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="542" spans="1:16">
       <c r="A542" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B542" t="s">
         <v>93</v>
       </c>
       <c r="C542">
-        <v>42.55551239448888</v>
+        <v>42.5821201676108</v>
       </c>
       <c r="D542" t="s">
         <v>208</v>
@@ -28908,22 +28908,22 @@
         <v>-1</v>
       </c>
       <c r="G542">
-        <v>0.04304448760551111</v>
+        <v>0.0430578798323892</v>
       </c>
       <c r="H542">
         <v>0.03543779220209856</v>
       </c>
       <c r="I542">
-        <v>7.553304596587438</v>
+        <v>7.579912369709362</v>
       </c>
       <c r="J542">
         <v>0.01321554624384431</v>
       </c>
       <c r="K542">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="L542">
-        <v>42.8</v>
+        <v>42.82</v>
       </c>
       <c r="M542">
         <v>16.48</v>
@@ -28940,13 +28940,13 @@
     </row>
     <row r="543" spans="1:16">
       <c r="A543" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B543" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C543">
-        <v>42.86185585668593</v>
+        <v>42.55551239448888</v>
       </c>
       <c r="D543" t="s">
         <v>208</v>
@@ -28958,22 +28958,22 @@
         <v>-1</v>
       </c>
       <c r="G543">
-        <v>0.04333814414331408</v>
+        <v>0.04304448760551111</v>
       </c>
       <c r="H543">
         <v>0.03543779220209856</v>
       </c>
       <c r="I543">
-        <v>7.859648058784487</v>
+        <v>7.553304596587438</v>
       </c>
       <c r="J543">
         <v>0.01321554624384431</v>
       </c>
       <c r="K543">
-        <v>18.02</v>
+        <v>18.5</v>
       </c>
       <c r="L543">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="M543">
         <v>16.48</v>
@@ -28990,52 +28990,52 @@
     </row>
     <row r="544" spans="1:16">
       <c r="A544" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B544" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C544">
-        <v>9.729438161046986</v>
+        <v>42.86185585668593</v>
       </c>
       <c r="D544" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E544">
-        <v>4.60825443961048</v>
+        <v>35.00220779790144</v>
       </c>
       <c r="F544">
         <v>-1</v>
       </c>
       <c r="G544">
-        <v>0.073090561838953</v>
+        <v>0.04333814414331408</v>
       </c>
       <c r="H544">
-        <v>0.06337174556038953</v>
+        <v>0.03543779220209856</v>
       </c>
       <c r="I544">
-        <v>5.121183721436505</v>
+        <v>7.859648058784487</v>
       </c>
       <c r="J544">
-        <v>1.795950217627722</v>
+        <v>0.01321554624384431</v>
       </c>
       <c r="K544">
-        <v>17.64</v>
+        <v>18.02</v>
       </c>
       <c r="L544">
-        <v>41.41</v>
+        <v>43.1</v>
       </c>
       <c r="M544">
-        <v>16.36</v>
+        <v>16.48</v>
       </c>
       <c r="N544">
-        <v>33.99</v>
+        <v>35.22</v>
       </c>
       <c r="O544">
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -29046,28 +29046,28 @@
         <v>94</v>
       </c>
       <c r="C545">
-        <v>7.54859977610915</v>
+        <v>9.729438161046986</v>
       </c>
       <c r="D545" t="s">
         <v>209</v>
       </c>
       <c r="E545">
-        <v>2.585662830903956</v>
+        <v>4.60825443961048</v>
       </c>
       <c r="F545">
         <v>-1</v>
       </c>
       <c r="G545">
-        <v>0.07527140022389085</v>
+        <v>0.073090561838953</v>
       </c>
       <c r="H545">
-        <v>0.06539433716909605</v>
+        <v>0.06337174556038953</v>
       </c>
       <c r="I545">
-        <v>4.962936945205193</v>
+        <v>5.121183721436505</v>
       </c>
       <c r="J545">
-        <v>1.919580511558438</v>
+        <v>1.795950217627722</v>
       </c>
       <c r="K545">
         <v>17.64</v>
@@ -29085,7 +29085,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -29093,49 +29093,49 @@
         <v>0</v>
       </c>
       <c r="B546" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C546">
-        <v>-11.50981224787577</v>
+        <v>7.54859977610915</v>
       </c>
       <c r="D546" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E546">
-        <v>-12.64543465431473</v>
+        <v>2.585662830903956</v>
       </c>
       <c r="F546">
         <v>-1</v>
       </c>
       <c r="G546">
-        <v>0.07820981224787578</v>
+        <v>0.07527140022389085</v>
       </c>
       <c r="H546">
-        <v>0.07458543465431472</v>
+        <v>0.06539433716909605</v>
       </c>
       <c r="I546">
-        <v>1.135622406438955</v>
+        <v>4.962936945205193</v>
       </c>
       <c r="J546">
-        <v>3.11094398390262</v>
+        <v>1.919580511558438</v>
       </c>
       <c r="K546">
-        <v>14.42</v>
+        <v>17.64</v>
       </c>
       <c r="L546">
-        <v>33.35</v>
+        <v>41.41</v>
       </c>
       <c r="M546">
-        <v>14.02</v>
+        <v>16.36</v>
       </c>
       <c r="N546">
-        <v>30.97</v>
+        <v>33.99</v>
       </c>
       <c r="O546">
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -29146,28 +29146,28 @@
         <v>95</v>
       </c>
       <c r="C547">
-        <v>-14.45296762860061</v>
+        <v>-11.50981224787577</v>
       </c>
       <c r="D547" t="s">
         <v>210</v>
       </c>
       <c r="E547">
-        <v>-15.50694910908326</v>
+        <v>-11.53437033882199</v>
       </c>
       <c r="F547">
         <v>-1</v>
       </c>
       <c r="G547">
-        <v>0.08115296762860061</v>
+        <v>0.07820981224787578</v>
       </c>
       <c r="H547">
-        <v>0.07744694910908326</v>
+        <v>0.073954370338822</v>
       </c>
       <c r="I547">
-        <v>1.053981480482648</v>
+        <v>0.02455809094622197</v>
       </c>
       <c r="J547">
-        <v>3.315046298793385</v>
+        <v>3.11094398390262</v>
       </c>
       <c r="K547">
         <v>14.42</v>
@@ -29176,16 +29176,16 @@
         <v>33.35</v>
       </c>
       <c r="M547">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N547">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O547">
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>414</v>
+        <v>203</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -29196,28 +29196,28 @@
         <v>95</v>
       </c>
       <c r="C548">
-        <v>-16.73446929343141</v>
+        <v>-14.45296762860061</v>
       </c>
       <c r="D548" t="s">
         <v>210</v>
       </c>
       <c r="E548">
-        <v>-17.72516362648463</v>
+        <v>-14.33873614542111</v>
       </c>
       <c r="F548">
         <v>-1</v>
       </c>
       <c r="G548">
-        <v>0.08343446929343142</v>
+        <v>0.08115296762860061</v>
       </c>
       <c r="H548">
-        <v>0.07966516362648463</v>
+        <v>0.07675873614542111</v>
       </c>
       <c r="I548">
-        <v>0.9906943330532201</v>
+        <v>-0.1142314831795019</v>
       </c>
       <c r="J548">
-        <v>3.47326416736695</v>
+        <v>3.315046298793385</v>
       </c>
       <c r="K548">
         <v>14.42</v>
@@ -29226,16 +29226,16 @@
         <v>33.35</v>
       </c>
       <c r="M548">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N548">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O548">
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -29246,28 +29246,28 @@
         <v>95</v>
       </c>
       <c r="C549">
-        <v>-19.84240658705617</v>
+        <v>-16.73446929343141</v>
       </c>
       <c r="D549" t="s">
         <v>210</v>
       </c>
       <c r="E549">
-        <v>-20.74688906730426</v>
+        <v>-16.51264965962189</v>
       </c>
       <c r="F549">
         <v>-1</v>
       </c>
       <c r="G549">
-        <v>0.08654240658705618</v>
+        <v>0.08343446929343142</v>
       </c>
       <c r="H549">
-        <v>0.08268688906730427</v>
+        <v>0.07893264965962189</v>
       </c>
       <c r="I549">
-        <v>0.9044824802480917</v>
+        <v>-0.221819633809524</v>
       </c>
       <c r="J549">
-        <v>3.688793799379762</v>
+        <v>3.47326416736695</v>
       </c>
       <c r="K549">
         <v>14.42</v>
@@ -29276,16 +29276,16 @@
         <v>33.35</v>
       </c>
       <c r="M549">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N549">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O549">
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -29296,28 +29296,28 @@
         <v>95</v>
       </c>
       <c r="C550">
-        <v>-22.72531854838638</v>
+        <v>-19.84240658705617</v>
       </c>
       <c r="D550" t="s">
         <v>210</v>
       </c>
       <c r="E550">
-        <v>-23.54983121001227</v>
+        <v>-19.47402680347793</v>
       </c>
       <c r="F550">
         <v>-1</v>
       </c>
       <c r="G550">
-        <v>0.08942531854838637</v>
+        <v>0.08654240658705618</v>
       </c>
       <c r="H550">
-        <v>0.08548983121001227</v>
+        <v>0.08189402680347793</v>
       </c>
       <c r="I550">
-        <v>0.8245126616258958</v>
+        <v>-0.3683797835782414</v>
       </c>
       <c r="J550">
-        <v>3.888718345935255</v>
+        <v>3.688793799379762</v>
       </c>
       <c r="K550">
         <v>14.42</v>
@@ -29326,16 +29326,16 @@
         <v>33.35</v>
       </c>
       <c r="M550">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N550">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O550">
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -29346,28 +29346,28 @@
         <v>95</v>
       </c>
       <c r="C551">
-        <v>-24.20023430049638</v>
+        <v>-22.72531854838638</v>
       </c>
       <c r="D551" t="s">
         <v>210</v>
       </c>
       <c r="E551">
-        <v>-24.98383390381132</v>
+        <v>-22.2209900731504</v>
       </c>
       <c r="F551">
         <v>-1</v>
       </c>
       <c r="G551">
-        <v>0.09090023430049637</v>
+        <v>0.08942531854838637</v>
       </c>
       <c r="H551">
-        <v>0.08692383390381131</v>
+        <v>0.0846409900731504</v>
       </c>
       <c r="I551">
-        <v>0.7835996033149399</v>
+        <v>-0.5043284752359725</v>
       </c>
       <c r="J551">
-        <v>3.991000991712648</v>
+        <v>3.888718345935255</v>
       </c>
       <c r="K551">
         <v>14.42</v>
@@ -29376,16 +29376,16 @@
         <v>33.35</v>
       </c>
       <c r="M551">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N551">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O551">
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -29396,28 +29396,28 @@
         <v>95</v>
       </c>
       <c r="C552">
-        <v>-25.47571054379749</v>
+        <v>-24.20023430049638</v>
       </c>
       <c r="D552" t="s">
         <v>210</v>
       </c>
       <c r="E552">
-        <v>-26.22392939140367</v>
+        <v>-23.62635362613178</v>
       </c>
       <c r="F552">
         <v>-1</v>
       </c>
       <c r="G552">
-        <v>0.0921757105437975</v>
+        <v>0.09090023430049637</v>
       </c>
       <c r="H552">
-        <v>0.08816392939140366</v>
+        <v>0.08604635362613178</v>
       </c>
       <c r="I552">
-        <v>0.7482188476061751</v>
+        <v>-0.5738806743645952</v>
       </c>
       <c r="J552">
-        <v>4.07945288098457</v>
+        <v>3.991000991712648</v>
       </c>
       <c r="K552">
         <v>14.42</v>
@@ -29426,16 +29426,16 @@
         <v>33.35</v>
       </c>
       <c r="M552">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N552">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O552">
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29446,28 +29446,28 @@
         <v>95</v>
       </c>
       <c r="C553">
-        <v>-27.274837322146</v>
+        <v>-25.47571054379749</v>
       </c>
       <c r="D553" t="s">
         <v>210</v>
       </c>
       <c r="E553">
-        <v>-27.97314974039438</v>
+        <v>-24.84168258472798</v>
       </c>
       <c r="F553">
         <v>-1</v>
       </c>
       <c r="G553">
-        <v>0.09397483732214601</v>
+        <v>0.0921757105437975</v>
       </c>
       <c r="H553">
-        <v>0.08991314974039438</v>
+        <v>0.087261682584728</v>
       </c>
       <c r="I553">
-        <v>0.6983124182483778</v>
+        <v>-0.6340279590695062</v>
       </c>
       <c r="J553">
-        <v>4.204218954379057</v>
+        <v>4.07945288098457</v>
       </c>
       <c r="K553">
         <v>14.42</v>
@@ -29476,16 +29476,16 @@
         <v>33.35</v>
       </c>
       <c r="M553">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N553">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O553">
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -29496,28 +29496,28 @@
         <v>95</v>
       </c>
       <c r="C554">
-        <v>-29.57413392767203</v>
+        <v>-27.274837322146</v>
       </c>
       <c r="D554" t="s">
         <v>210</v>
       </c>
       <c r="E554">
-        <v>-30.20866558016379</v>
+        <v>-26.55596843316824</v>
       </c>
       <c r="F554">
         <v>-1</v>
       </c>
       <c r="G554">
-        <v>0.09627413392767205</v>
+        <v>0.09397483732214601</v>
       </c>
       <c r="H554">
-        <v>0.0921486655801638</v>
+        <v>0.08897596843316825</v>
       </c>
       <c r="I554">
-        <v>0.6345316524917592</v>
+        <v>-0.7188688889777595</v>
       </c>
       <c r="J554">
-        <v>4.363670868770599</v>
+        <v>4.204218954379057</v>
       </c>
       <c r="K554">
         <v>14.42</v>
@@ -29526,16 +29526,16 @@
         <v>33.35</v>
       </c>
       <c r="M554">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N554">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O554">
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -29546,28 +29546,28 @@
         <v>95</v>
       </c>
       <c r="C555">
-        <v>-32.02256187865388</v>
+        <v>-29.57413392767203</v>
       </c>
       <c r="D555" t="s">
         <v>210</v>
       </c>
       <c r="E555">
-        <v>-32.58917597355947</v>
+        <v>-28.74683773690802</v>
       </c>
       <c r="F555">
         <v>-1</v>
       </c>
       <c r="G555">
-        <v>0.0987225618786539</v>
+        <v>0.09627413392767205</v>
       </c>
       <c r="H555">
-        <v>0.09452917597355946</v>
+        <v>0.09116683773690802</v>
       </c>
       <c r="I555">
-        <v>0.5666140949055887</v>
+        <v>-0.8272961907640095</v>
       </c>
       <c r="J555">
-        <v>4.533464762736053</v>
+        <v>4.363670868770599</v>
       </c>
       <c r="K555">
         <v>14.42</v>
@@ -29576,16 +29576,16 @@
         <v>33.35</v>
       </c>
       <c r="M555">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N555">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O555">
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -29596,28 +29596,28 @@
         <v>95</v>
       </c>
       <c r="C556">
-        <v>-32.90209295441144</v>
+        <v>-32.02256187865388</v>
       </c>
       <c r="D556" t="s">
         <v>210</v>
       </c>
       <c r="E556">
-        <v>-33.44430951600891</v>
+        <v>-31.07980583999338</v>
       </c>
       <c r="F556">
         <v>-1</v>
       </c>
       <c r="G556">
-        <v>0.09960209295441143</v>
+        <v>0.0987225618786539</v>
       </c>
       <c r="H556">
-        <v>0.09538430951600892</v>
+        <v>0.09349980583999337</v>
       </c>
       <c r="I556">
-        <v>0.5422165615974777</v>
+        <v>-0.9427560386605052</v>
       </c>
       <c r="J556">
-        <v>4.594458596006342</v>
+        <v>4.533464762736053</v>
       </c>
       <c r="K556">
         <v>14.42</v>
@@ -29626,16 +29626,16 @@
         <v>33.35</v>
       </c>
       <c r="M556">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N556">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O556">
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29646,28 +29646,28 @@
         <v>95</v>
       </c>
       <c r="C557">
-        <v>-33.461460337083</v>
+        <v>-32.90209295441144</v>
       </c>
       <c r="D557" t="s">
         <v>210</v>
       </c>
       <c r="E557">
-        <v>-33.98816046642884</v>
+        <v>-31.91786110912713</v>
       </c>
       <c r="F557">
         <v>-1</v>
       </c>
       <c r="G557">
-        <v>0.100161460337083</v>
+        <v>0.09960209295441143</v>
       </c>
       <c r="H557">
-        <v>0.09592816046642884</v>
+        <v>0.09433786110912713</v>
       </c>
       <c r="I557">
-        <v>0.5267001293458335</v>
+        <v>-0.984231845284306</v>
       </c>
       <c r="J557">
-        <v>4.633249676635438</v>
+        <v>4.594458596006342</v>
       </c>
       <c r="K557">
         <v>14.42</v>
@@ -29676,16 +29676,16 @@
         <v>33.35</v>
       </c>
       <c r="M557">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N557">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O557">
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>94</v>
+        <v>423</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29696,28 +29696,28 @@
         <v>95</v>
       </c>
       <c r="C558">
-        <v>-33.81216713234068</v>
+        <v>-33.461460337083</v>
       </c>
       <c r="D558" t="s">
         <v>210</v>
       </c>
       <c r="E558">
-        <v>-34.32913891785134</v>
+        <v>-32.45085055697091</v>
       </c>
       <c r="F558">
         <v>-1</v>
       </c>
       <c r="G558">
-        <v>0.1005121671323407</v>
+        <v>0.100161460337083</v>
       </c>
       <c r="H558">
-        <v>0.09626913891785134</v>
+        <v>0.09487085055697091</v>
       </c>
       <c r="I558">
-        <v>0.5169717855106555</v>
+        <v>-1.010609780112091</v>
       </c>
       <c r="J558">
-        <v>4.657570536223348</v>
+        <v>4.633249676635438</v>
       </c>
       <c r="K558">
         <v>14.42</v>
@@ -29726,16 +29726,16 @@
         <v>33.35</v>
       </c>
       <c r="M558">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N558">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O558">
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>424</v>
+        <v>94</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29746,28 +29746,28 @@
         <v>95</v>
       </c>
       <c r="C559">
-        <v>-34.33241213343835</v>
+        <v>-33.81216713234068</v>
       </c>
       <c r="D559" t="s">
         <v>210</v>
       </c>
       <c r="E559">
-        <v>-34.83495271226114</v>
+        <v>-32.7850191677088</v>
       </c>
       <c r="F559">
         <v>-1</v>
       </c>
       <c r="G559">
-        <v>0.1010324121334384</v>
+        <v>0.1005121671323407</v>
       </c>
       <c r="H559">
-        <v>0.09677495271226114</v>
+        <v>0.09520501916770879</v>
       </c>
       <c r="I559">
-        <v>0.5025405788227957</v>
+        <v>-1.02714796463188</v>
       </c>
       <c r="J559">
-        <v>4.69364855294302</v>
+        <v>4.657570536223348</v>
       </c>
       <c r="K559">
         <v>14.42</v>
@@ -29776,16 +29776,16 @@
         <v>33.35</v>
       </c>
       <c r="M559">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N559">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O559">
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29796,28 +29796,28 @@
         <v>95</v>
       </c>
       <c r="C560">
-        <v>-34.1882662438092</v>
+        <v>-34.33241213343835</v>
       </c>
       <c r="D560" t="s">
         <v>210</v>
       </c>
       <c r="E560">
-        <v>-34.69480532165083</v>
+        <v>-33.28073111743709</v>
       </c>
       <c r="F560">
         <v>-1</v>
       </c>
       <c r="G560">
-        <v>0.1008882662438092</v>
+        <v>0.1010324121334384</v>
       </c>
       <c r="H560">
-        <v>0.09663480532165084</v>
+        <v>0.0957007311174371</v>
       </c>
       <c r="I560">
-        <v>0.5065390778416301</v>
+        <v>-1.051681016001254</v>
       </c>
       <c r="J560">
-        <v>4.683652305395922</v>
+        <v>4.69364855294302</v>
       </c>
       <c r="K560">
         <v>14.42</v>
@@ -29826,16 +29826,16 @@
         <v>33.35</v>
       </c>
       <c r="M560">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N560">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O560">
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29846,28 +29846,28 @@
         <v>95</v>
       </c>
       <c r="C561">
-        <v>-33.25255835371447</v>
+        <v>-34.1882662438092</v>
       </c>
       <c r="D561" t="s">
         <v>210</v>
       </c>
       <c r="E561">
-        <v>-33.78505326761976</v>
+        <v>-33.14338267613997</v>
       </c>
       <c r="F561">
         <v>-1</v>
       </c>
       <c r="G561">
-        <v>0.09995255835371447</v>
+        <v>0.1008882662438092</v>
       </c>
       <c r="H561">
-        <v>0.09572505326761976</v>
+        <v>0.09556338267613998</v>
       </c>
       <c r="I561">
-        <v>0.532494913905289</v>
+        <v>-1.044883567669231</v>
       </c>
       <c r="J561">
-        <v>4.618762715236787</v>
+        <v>4.683652305395922</v>
       </c>
       <c r="K561">
         <v>14.42</v>
@@ -29876,16 +29876,16 @@
         <v>33.35</v>
       </c>
       <c r="M561">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N561">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O561">
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -29896,28 +29896,28 @@
         <v>95</v>
       </c>
       <c r="C562">
-        <v>-31.25154696453617</v>
+        <v>-33.25255835371447</v>
       </c>
       <c r="D562" t="s">
         <v>210</v>
       </c>
       <c r="E562">
-        <v>-31.83954843570022</v>
+        <v>-32.25179970735346</v>
       </c>
       <c r="F562">
         <v>-1</v>
       </c>
       <c r="G562">
-        <v>0.09795154696453616</v>
+        <v>0.09995255835371447</v>
       </c>
       <c r="H562">
-        <v>0.0937795484357002</v>
+        <v>0.09467179970735345</v>
       </c>
       <c r="I562">
-        <v>0.5880014711640484</v>
+        <v>-1.000758646361014</v>
       </c>
       <c r="J562">
-        <v>4.479996322089887</v>
+        <v>4.618762715236787</v>
       </c>
       <c r="K562">
         <v>14.42</v>
@@ -29926,16 +29926,16 @@
         <v>33.35</v>
       </c>
       <c r="M562">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N562">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O562">
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -29946,28 +29946,28 @@
         <v>95</v>
       </c>
       <c r="C563">
-        <v>-31.48727503817337</v>
+        <v>-31.25154696453617</v>
       </c>
       <c r="D563" t="s">
         <v>210</v>
       </c>
       <c r="E563">
-        <v>-32.06873758912557</v>
+        <v>-30.34514946551505</v>
       </c>
       <c r="F563">
         <v>-1</v>
       </c>
       <c r="G563">
-        <v>0.09818727503817337</v>
+        <v>0.09795154696453616</v>
       </c>
       <c r="H563">
-        <v>0.09400873758912556</v>
+        <v>0.09276514946551505</v>
       </c>
       <c r="I563">
-        <v>0.581462550952196</v>
+        <v>-0.9063974990211179</v>
       </c>
       <c r="J563">
-        <v>4.496343622619513</v>
+        <v>4.479996322089887</v>
       </c>
       <c r="K563">
         <v>14.42</v>
@@ -29976,16 +29976,16 @@
         <v>33.35</v>
       </c>
       <c r="M563">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N563">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O563">
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -29996,28 +29996,28 @@
         <v>95</v>
       </c>
       <c r="C564">
-        <v>-31.52185483997031</v>
+        <v>-31.48727503817337</v>
       </c>
       <c r="D564" t="s">
         <v>210</v>
       </c>
       <c r="E564">
-        <v>-32.10235817311954</v>
+        <v>-30.56976137479211</v>
       </c>
       <c r="F564">
         <v>-1</v>
       </c>
       <c r="G564">
-        <v>0.09822185483997033</v>
+        <v>0.09818727503817337</v>
       </c>
       <c r="H564">
-        <v>0.09404235817311954</v>
+        <v>0.09298976137479212</v>
       </c>
       <c r="I564">
-        <v>0.5805033331492311</v>
+        <v>-0.9175136633812642</v>
       </c>
       <c r="J564">
-        <v>4.498741667126929</v>
+        <v>4.496343622619513</v>
       </c>
       <c r="K564">
         <v>14.42</v>
@@ -30026,16 +30026,16 @@
         <v>33.35</v>
       </c>
       <c r="M564">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N564">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O564">
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -30046,28 +30046,28 @@
         <v>95</v>
       </c>
       <c r="C565">
-        <v>-31.89139757941002</v>
+        <v>-31.52185483997031</v>
       </c>
       <c r="D565" t="s">
         <v>210</v>
       </c>
       <c r="E565">
-        <v>-32.46165007373983</v>
+        <v>-30.602710506324</v>
       </c>
       <c r="F565">
         <v>-1</v>
       </c>
       <c r="G565">
-        <v>0.09859139757941003</v>
+        <v>0.09822185483997033</v>
       </c>
       <c r="H565">
-        <v>0.09440165007373984</v>
+        <v>0.09302271050632401</v>
       </c>
       <c r="I565">
-        <v>0.5702524943298144</v>
+        <v>-0.9191443336463081</v>
       </c>
       <c r="J565">
-        <v>4.524368764175452</v>
+        <v>4.498741667126929</v>
       </c>
       <c r="K565">
         <v>14.42</v>
@@ -30076,16 +30076,16 @@
         <v>33.35</v>
       </c>
       <c r="M565">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N565">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O565">
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30096,28 +30096,28 @@
         <v>95</v>
       </c>
       <c r="C566">
-        <v>-32.32413238140915</v>
+        <v>-31.89139757941002</v>
       </c>
       <c r="D566" t="s">
         <v>210</v>
       </c>
       <c r="E566">
-        <v>-32.88238113643247</v>
+        <v>-30.95482681977071</v>
       </c>
       <c r="F566">
         <v>-1</v>
       </c>
       <c r="G566">
-        <v>0.09902413238140914</v>
+        <v>0.09859139757941003</v>
       </c>
       <c r="H566">
-        <v>0.09482238113643247</v>
+        <v>0.0933748268197707</v>
       </c>
       <c r="I566">
-        <v>0.5582487550233211</v>
+        <v>-0.9365707596393094</v>
       </c>
       <c r="J566">
-        <v>4.554378112441689</v>
+        <v>4.524368764175452</v>
       </c>
       <c r="K566">
         <v>14.42</v>
@@ -30126,16 +30126,16 @@
         <v>33.35</v>
       </c>
       <c r="M566">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N566">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O566">
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30146,28 +30146,28 @@
         <v>95</v>
       </c>
       <c r="C567">
-        <v>-33.78611757361724</v>
+        <v>-32.32413238140915</v>
       </c>
       <c r="D567" t="s">
         <v>210</v>
       </c>
       <c r="E567">
-        <v>-34.30381195437681</v>
+        <v>-31.3671552649488</v>
       </c>
       <c r="F567">
         <v>-1</v>
       </c>
       <c r="G567">
-        <v>0.1004861175736172</v>
+        <v>0.09902413238140914</v>
       </c>
       <c r="H567">
-        <v>0.09624381195437681</v>
+        <v>0.09378715526494881</v>
       </c>
       <c r="I567">
-        <v>0.517694380759572</v>
+        <v>-0.9569771164603509</v>
       </c>
       <c r="J567">
-        <v>4.655764048101057</v>
+        <v>4.554378112441689</v>
       </c>
       <c r="K567">
         <v>14.42</v>
@@ -30176,16 +30176,16 @@
         <v>33.35</v>
       </c>
       <c r="M567">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N567">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O567">
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30196,28 +30196,28 @@
         <v>95</v>
       </c>
       <c r="C568">
-        <v>-35.63785300246493</v>
+        <v>-33.78611757361724</v>
       </c>
       <c r="D568" t="s">
         <v>210</v>
       </c>
       <c r="E568">
-        <v>-36.10418162930362</v>
+        <v>-32.76019802090853</v>
       </c>
       <c r="F568">
         <v>-1</v>
       </c>
       <c r="G568">
-        <v>0.1023378530024649</v>
+        <v>0.1004861175736172</v>
       </c>
       <c r="H568">
-        <v>0.09804418162930363</v>
+        <v>0.09518019802090853</v>
       </c>
       <c r="I568">
-        <v>0.4663286268386955</v>
+        <v>-1.025919552708714</v>
       </c>
       <c r="J568">
-        <v>4.784178432903254</v>
+        <v>4.655764048101057</v>
       </c>
       <c r="K568">
         <v>14.42</v>
@@ -30226,16 +30226,16 @@
         <v>33.35</v>
       </c>
       <c r="M568">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N568">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O568">
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30246,28 +30246,28 @@
         <v>95</v>
       </c>
       <c r="C569">
-        <v>-36.5490151395505</v>
+        <v>-35.63785300246493</v>
       </c>
       <c r="D569" t="s">
         <v>210</v>
       </c>
       <c r="E569">
-        <v>-36.99006881113023</v>
+        <v>-34.52461166809072</v>
       </c>
       <c r="F569">
         <v>-1</v>
       </c>
       <c r="G569">
-        <v>0.1032490151395505</v>
+        <v>0.1023378530024649</v>
       </c>
       <c r="H569">
-        <v>0.09893006881113023</v>
+        <v>0.09694461166809072</v>
       </c>
       <c r="I569">
-        <v>0.4410536715797306</v>
+        <v>-1.113241334374209</v>
       </c>
       <c r="J569">
-        <v>4.847365821050658</v>
+        <v>4.784178432903254</v>
       </c>
       <c r="K569">
         <v>14.42</v>
@@ -30276,16 +30276,16 @@
         <v>33.35</v>
       </c>
       <c r="M569">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N569">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O569">
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30296,28 +30296,28 @@
         <v>95</v>
       </c>
       <c r="C570">
-        <v>-37.79431322143757</v>
+        <v>-36.5490151395505</v>
       </c>
       <c r="D570" t="s">
         <v>210</v>
       </c>
       <c r="E570">
-        <v>-38.20082325690393</v>
+        <v>-35.39280638123605</v>
       </c>
       <c r="F570">
         <v>-1</v>
       </c>
       <c r="G570">
-        <v>0.1044943132214376</v>
+        <v>0.1032490151395505</v>
       </c>
       <c r="H570">
-        <v>0.1001408232569039</v>
+        <v>0.09781280638123604</v>
       </c>
       <c r="I570">
-        <v>0.4065100354663613</v>
+        <v>-1.156208758314449</v>
       </c>
       <c r="J570">
-        <v>4.93372491133409</v>
+        <v>4.847365821050658</v>
       </c>
       <c r="K570">
         <v>14.42</v>
@@ -30326,16 +30326,16 @@
         <v>33.35</v>
       </c>
       <c r="M570">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N570">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O570">
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>208</v>
+        <v>435</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30346,28 +30346,28 @@
         <v>95</v>
       </c>
       <c r="C571">
-        <v>-38.82501456462595</v>
+        <v>-37.79431322143757</v>
       </c>
       <c r="D571" t="s">
         <v>210</v>
       </c>
       <c r="E571">
-        <v>-39.20293371678612</v>
+        <v>-36.57938028173039</v>
       </c>
       <c r="F571">
         <v>-1</v>
       </c>
       <c r="G571">
-        <v>0.105525014564626</v>
+        <v>0.1044943132214376</v>
       </c>
       <c r="H571">
-        <v>0.1011429337167861</v>
+        <v>0.0989993802817304</v>
       </c>
       <c r="I571">
-        <v>0.3779191521601675</v>
+        <v>-1.214932939707182</v>
       </c>
       <c r="J571">
-        <v>5.005202119599581</v>
+        <v>4.93372491133409</v>
       </c>
       <c r="K571">
         <v>14.42</v>
@@ -30376,16 +30376,16 @@
         <v>33.35</v>
       </c>
       <c r="M571">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N571">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O571">
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -30396,28 +30396,28 @@
         <v>95</v>
       </c>
       <c r="C572">
-        <v>-39.66328503084436</v>
+        <v>-38.82501456462595</v>
       </c>
       <c r="D572" t="s">
         <v>210</v>
       </c>
       <c r="E572">
-        <v>-40.01795118810249</v>
+        <v>-37.56147712329824</v>
       </c>
       <c r="F572">
         <v>-1</v>
       </c>
       <c r="G572">
-        <v>0.1063632850308444</v>
+        <v>0.105525014564626</v>
       </c>
       <c r="H572">
-        <v>0.1019579511881025</v>
+        <v>0.09998147712329825</v>
       </c>
       <c r="I572">
-        <v>0.35466615725813</v>
+        <v>-1.263537441327713</v>
       </c>
       <c r="J572">
-        <v>5.063334606854671</v>
+        <v>5.005202119599581</v>
       </c>
       <c r="K572">
         <v>14.42</v>
@@ -30426,16 +30426,16 @@
         <v>33.35</v>
       </c>
       <c r="M572">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N572">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O572">
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>436</v>
+        <v>209</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30446,28 +30446,28 @@
         <v>95</v>
       </c>
       <c r="C573">
-        <v>-39.98565222105197</v>
+        <v>-39.66328503084436</v>
       </c>
       <c r="D573" t="s">
         <v>210</v>
       </c>
       <c r="E573">
-        <v>-40.3313761538938</v>
+        <v>-38.36021749818318</v>
       </c>
       <c r="F573">
         <v>-1</v>
       </c>
       <c r="G573">
-        <v>0.106685652221052</v>
+        <v>0.1063632850308444</v>
       </c>
       <c r="H573">
-        <v>0.1022713761538938</v>
+        <v>0.1007802174981832</v>
       </c>
       <c r="I573">
-        <v>0.3457239328418282</v>
+        <v>-1.303067532661174</v>
       </c>
       <c r="J573">
-        <v>5.085690167895421</v>
+        <v>5.063334606854671</v>
       </c>
       <c r="K573">
         <v>14.42</v>
@@ -30476,16 +30476,16 @@
         <v>33.35</v>
       </c>
       <c r="M573">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N573">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O573">
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30496,28 +30496,28 @@
         <v>95</v>
       </c>
       <c r="C574">
-        <v>-40.67085551862824</v>
+        <v>-39.98565222105197</v>
       </c>
       <c r="D574" t="s">
         <v>210</v>
       </c>
       <c r="E574">
-        <v>-40.99757242518501</v>
+        <v>-38.66738290688308</v>
       </c>
       <c r="F574">
         <v>-1</v>
       </c>
       <c r="G574">
-        <v>0.1073708555186283</v>
+        <v>0.106685652221052</v>
       </c>
       <c r="H574">
-        <v>0.102937572425185</v>
+        <v>0.1010873829068831</v>
       </c>
       <c r="I574">
-        <v>0.3267169065567757</v>
+        <v>-1.318269314168887</v>
       </c>
       <c r="J574">
-        <v>5.133207733608061</v>
+        <v>5.085690167895421</v>
       </c>
       <c r="K574">
         <v>14.42</v>
@@ -30526,16 +30526,16 @@
         <v>33.35</v>
       </c>
       <c r="M574">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N574">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O574">
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30546,28 +30546,28 @@
         <v>95</v>
       </c>
       <c r="C575">
-        <v>-40.40068240194869</v>
+        <v>-40.67085551862824</v>
       </c>
       <c r="D575" t="s">
         <v>210</v>
       </c>
       <c r="E575">
-        <v>-40.73489370841335</v>
+        <v>-39.32027425977476</v>
       </c>
       <c r="F575">
         <v>-1</v>
       </c>
       <c r="G575">
-        <v>0.1071006824019487</v>
+        <v>0.1073708555186283</v>
       </c>
       <c r="H575">
-        <v>0.1026748937084134</v>
+        <v>0.1017402742597748</v>
       </c>
       <c r="I575">
-        <v>0.3342113064646597</v>
+        <v>-1.350581258853481</v>
       </c>
       <c r="J575">
-        <v>5.114471733838328</v>
+        <v>5.133207733608061</v>
       </c>
       <c r="K575">
         <v>14.42</v>
@@ -30576,16 +30576,16 @@
         <v>33.35</v>
       </c>
       <c r="M575">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N575">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O575">
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30596,28 +30596,28 @@
         <v>95</v>
       </c>
       <c r="C576">
-        <v>-39.80291390660059</v>
+        <v>-40.40068240194869</v>
       </c>
       <c r="D576" t="s">
         <v>210</v>
       </c>
       <c r="E576">
-        <v>-40.15370686342165</v>
+        <v>-39.06284162293863</v>
       </c>
       <c r="F576">
         <v>-1</v>
       </c>
       <c r="G576">
-        <v>0.1065029139066006</v>
+        <v>0.1071006824019487</v>
       </c>
       <c r="H576">
-        <v>0.1020937068634216</v>
+        <v>0.1014828416229386</v>
       </c>
       <c r="I576">
-        <v>0.3507929568210599</v>
+        <v>-1.337840779010065</v>
       </c>
       <c r="J576">
-        <v>5.073017607947336</v>
+        <v>5.114471733838328</v>
       </c>
       <c r="K576">
         <v>14.42</v>
@@ -30626,16 +30626,16 @@
         <v>33.35</v>
       </c>
       <c r="M576">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N576">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O576">
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30646,28 +30646,28 @@
         <v>95</v>
       </c>
       <c r="C577">
-        <v>-39.00835048433611</v>
+        <v>-39.80291390660059</v>
       </c>
       <c r="D577" t="s">
         <v>210</v>
       </c>
       <c r="E577">
-        <v>-39.38118403539475</v>
+        <v>-38.4932619331964</v>
       </c>
       <c r="F577">
         <v>-1</v>
       </c>
       <c r="G577">
-        <v>0.1057083504843361</v>
+        <v>0.1065029139066006</v>
       </c>
       <c r="H577">
-        <v>0.1013211840353948</v>
+        <v>0.1009132619331964</v>
       </c>
       <c r="I577">
-        <v>0.3728335510586405</v>
+        <v>-1.309651973404186</v>
       </c>
       <c r="J577">
-        <v>5.017916122353406</v>
+        <v>5.073017607947336</v>
       </c>
       <c r="K577">
         <v>14.42</v>
@@ -30676,16 +30676,16 @@
         <v>33.35</v>
       </c>
       <c r="M577">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N577">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O577">
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30696,28 +30696,28 @@
         <v>95</v>
       </c>
       <c r="C578">
-        <v>-38.07539222179089</v>
+        <v>-39.00835048433611</v>
       </c>
       <c r="D578" t="s">
         <v>210</v>
       </c>
       <c r="E578">
-        <v>-38.47410533630432</v>
+        <v>-37.7361675211358</v>
       </c>
       <c r="F578">
         <v>-1</v>
       </c>
       <c r="G578">
-        <v>0.1047753922217909</v>
+        <v>0.1057083504843361</v>
       </c>
       <c r="H578">
-        <v>0.1004141053363043</v>
+        <v>0.1001561675211358</v>
       </c>
       <c r="I578">
-        <v>0.3987131145134342</v>
+        <v>-1.272182963200308</v>
       </c>
       <c r="J578">
-        <v>4.953217213716428</v>
+        <v>5.017916122353406</v>
       </c>
       <c r="K578">
         <v>14.42</v>
@@ -30726,16 +30726,16 @@
         <v>33.35</v>
       </c>
       <c r="M578">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N578">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O578">
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30746,28 +30746,28 @@
         <v>95</v>
       </c>
       <c r="C579">
-        <v>-35.52948394925348</v>
+        <v>-38.07539222179089</v>
       </c>
       <c r="D579" t="s">
         <v>210</v>
       </c>
       <c r="E579">
-        <v>-35.99881865246421</v>
+        <v>-36.84720451646373</v>
       </c>
       <c r="F579">
         <v>-1</v>
       </c>
       <c r="G579">
-        <v>0.1022294839492535</v>
+        <v>0.1047753922217909</v>
       </c>
       <c r="H579">
-        <v>0.0979388186524642</v>
+        <v>0.09926720451646372</v>
       </c>
       <c r="I579">
-        <v>0.4693347032107269</v>
+        <v>-1.228187705327159</v>
       </c>
       <c r="J579">
-        <v>4.776663241973196</v>
+        <v>4.953217213716428</v>
       </c>
       <c r="K579">
         <v>14.42</v>
@@ -30776,16 +30776,16 @@
         <v>33.35</v>
       </c>
       <c r="M579">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N579">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O579">
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30796,28 +30796,28 @@
         <v>95</v>
       </c>
       <c r="C580">
-        <v>-33.2233255371494</v>
+        <v>-35.52948394925348</v>
       </c>
       <c r="D580" t="s">
         <v>210</v>
       </c>
       <c r="E580">
-        <v>-33.75663134749199</v>
+        <v>-34.42135294471172</v>
       </c>
       <c r="F580">
         <v>-1</v>
       </c>
       <c r="G580">
-        <v>0.0999233255371494</v>
+        <v>0.1022294839492535</v>
       </c>
       <c r="H580">
-        <v>0.09569663134749198</v>
+        <v>0.09684135294471173</v>
       </c>
       <c r="I580">
-        <v>0.5333058103425898</v>
+        <v>-1.108131004541761</v>
       </c>
       <c r="J580">
-        <v>4.616735474143509</v>
+        <v>4.776663241973196</v>
       </c>
       <c r="K580">
         <v>14.42</v>
@@ -30826,16 +30826,16 @@
         <v>33.35</v>
       </c>
       <c r="M580">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N580">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O580">
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30846,28 +30846,28 @@
         <v>95</v>
       </c>
       <c r="C581">
-        <v>-33.2747632292893</v>
+        <v>-33.2233255371494</v>
       </c>
       <c r="D581" t="s">
         <v>210</v>
       </c>
       <c r="E581">
-        <v>-33.8066421965767</v>
+        <v>-32.22394541473181</v>
       </c>
       <c r="F581">
         <v>-1</v>
       </c>
       <c r="G581">
-        <v>0.09997476322928929</v>
+        <v>0.0999233255371494</v>
       </c>
       <c r="H581">
-        <v>0.09574664219657671</v>
+        <v>0.09464394541473181</v>
       </c>
       <c r="I581">
-        <v>0.5318789672874047</v>
+        <v>-0.9993801224175911</v>
       </c>
       <c r="J581">
-        <v>4.620302581781505</v>
+        <v>4.616735474143509</v>
       </c>
       <c r="K581">
         <v>14.42</v>
@@ -30876,16 +30876,16 @@
         <v>33.35</v>
       </c>
       <c r="M581">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N581">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O581">
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30896,28 +30896,28 @@
         <v>95</v>
       </c>
       <c r="C582">
-        <v>-31.14490189030078</v>
+        <v>-33.2747632292893</v>
       </c>
       <c r="D582" t="s">
         <v>210</v>
       </c>
       <c r="E582">
-        <v>-31.73586161595124</v>
+        <v>-32.27295747367788</v>
       </c>
       <c r="F582">
         <v>-1</v>
       </c>
       <c r="G582">
-        <v>0.09784490189030078</v>
+        <v>0.09997476322928929</v>
       </c>
       <c r="H582">
-        <v>0.09367586161595125</v>
+        <v>0.0946929574736779</v>
       </c>
       <c r="I582">
-        <v>0.590959725650464</v>
+        <v>-1.001805755611414</v>
       </c>
       <c r="J582">
-        <v>4.47260068587384</v>
+        <v>4.620302581781505</v>
       </c>
       <c r="K582">
         <v>14.42</v>
@@ -30926,16 +30926,16 @@
         <v>33.35</v>
       </c>
       <c r="M582">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N582">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O582">
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30946,28 +30946,28 @@
         <v>95</v>
       </c>
       <c r="C583">
-        <v>-29.55432368915762</v>
+        <v>-31.14490189030078</v>
       </c>
       <c r="D583" t="s">
         <v>210</v>
       </c>
       <c r="E583">
-        <v>-30.1894048628287</v>
+        <v>-30.24353342390656</v>
       </c>
       <c r="F583">
         <v>-1</v>
       </c>
       <c r="G583">
-        <v>0.09625432368915762</v>
+        <v>0.09784490189030078</v>
       </c>
       <c r="H583">
-        <v>0.0921294048628287</v>
+        <v>0.09266353342390656</v>
       </c>
       <c r="I583">
-        <v>0.6350811736710824</v>
+        <v>-0.9013684663942172</v>
       </c>
       <c r="J583">
-        <v>4.362297065822304</v>
+        <v>4.47260068587384</v>
       </c>
       <c r="K583">
         <v>14.42</v>
@@ -30976,16 +30976,16 @@
         <v>33.35</v>
       </c>
       <c r="M583">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N583">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O583">
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30996,28 +30996,28 @@
         <v>95</v>
       </c>
       <c r="C584">
-        <v>-29.40164252588785</v>
+        <v>-29.55432368915762</v>
       </c>
       <c r="D584" t="s">
         <v>210</v>
       </c>
       <c r="E584">
-        <v>-30.04095896067599</v>
+        <v>-28.72796168439846</v>
       </c>
       <c r="F584">
         <v>-1</v>
       </c>
       <c r="G584">
-        <v>0.09610164252588786</v>
+        <v>0.09625432368915762</v>
       </c>
       <c r="H584">
-        <v>0.091980958960676</v>
+        <v>0.09114796168439847</v>
       </c>
       <c r="I584">
-        <v>0.6393164347881353</v>
+        <v>-0.8263620047591616</v>
       </c>
       <c r="J584">
-        <v>4.351708913029671</v>
+        <v>4.362297065822304</v>
       </c>
       <c r="K584">
         <v>14.42</v>
@@ -31026,16 +31026,16 @@
         <v>33.35</v>
       </c>
       <c r="M584">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N584">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O584">
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31046,28 +31046,28 @@
         <v>95</v>
       </c>
       <c r="C585">
-        <v>-32.08343010997861</v>
+        <v>-29.40164252588785</v>
       </c>
       <c r="D585" t="s">
         <v>210</v>
       </c>
       <c r="E585">
-        <v>-32.6483557657351</v>
+        <v>-28.58248046502768</v>
       </c>
       <c r="F585">
         <v>-1</v>
       </c>
       <c r="G585">
-        <v>0.09878343010997861</v>
+        <v>0.09610164252588786</v>
       </c>
       <c r="H585">
-        <v>0.0945883557657351</v>
+        <v>0.09100248046502768</v>
       </c>
       <c r="I585">
-        <v>0.5649256557564897</v>
+        <v>-0.8191620608601724</v>
       </c>
       <c r="J585">
-        <v>4.53768586060878</v>
+        <v>4.351708913029671</v>
       </c>
       <c r="K585">
         <v>14.42</v>
@@ -31076,16 +31076,16 @@
         <v>33.35</v>
       </c>
       <c r="M585">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N585">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O585">
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31096,28 +31096,28 @@
         <v>95</v>
       </c>
       <c r="C586">
-        <v>-34.52232714024685</v>
+        <v>-32.08343010997861</v>
       </c>
       <c r="D586" t="s">
         <v>210</v>
       </c>
       <c r="E586">
-        <v>-35.01959961901949</v>
+        <v>-31.13780372476464</v>
       </c>
       <c r="F586">
         <v>-1</v>
       </c>
       <c r="G586">
-        <v>0.1012223271402468</v>
+        <v>0.09878343010997861</v>
       </c>
       <c r="H586">
-        <v>0.09695959961901948</v>
+        <v>0.09355780372476466</v>
       </c>
       <c r="I586">
-        <v>0.4972724787726364</v>
+        <v>-0.9456263852139699</v>
       </c>
       <c r="J586">
-        <v>4.706818803068437</v>
+        <v>4.53768586060878</v>
       </c>
       <c r="K586">
         <v>14.42</v>
@@ -31126,16 +31126,16 @@
         <v>33.35</v>
       </c>
       <c r="M586">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N586">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O586">
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31146,28 +31146,28 @@
         <v>95</v>
       </c>
       <c r="C587">
-        <v>-34.27587678154703</v>
+        <v>-34.52232714024685</v>
       </c>
       <c r="D587" t="s">
         <v>210</v>
       </c>
       <c r="E587">
-        <v>-34.77998560868859</v>
+        <v>-33.46169035416032</v>
       </c>
       <c r="F587">
         <v>-1</v>
       </c>
       <c r="G587">
-        <v>0.100975876781547</v>
+        <v>0.1012223271402468</v>
       </c>
       <c r="H587">
-        <v>0.09671998560868859</v>
+        <v>0.09588169035416033</v>
       </c>
       <c r="I587">
-        <v>0.5041088271415575</v>
+        <v>-1.060636786086533</v>
       </c>
       <c r="J587">
-        <v>4.689727932146119</v>
+        <v>4.706818803068437</v>
       </c>
       <c r="K587">
         <v>14.42</v>
@@ -31176,16 +31176,16 @@
         <v>33.35</v>
       </c>
       <c r="M587">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N587">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O587">
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31196,28 +31196,28 @@
         <v>95</v>
       </c>
       <c r="C588">
-        <v>-35.19584074069848</v>
+        <v>-34.27587678154703</v>
       </c>
       <c r="D588" t="s">
         <v>210</v>
       </c>
       <c r="E588">
-        <v>-35.67443045662917</v>
+        <v>-33.22686178768767</v>
       </c>
       <c r="F588">
         <v>-1</v>
       </c>
       <c r="G588">
-        <v>0.1018958407406985</v>
+        <v>0.100975876781547</v>
       </c>
       <c r="H588">
-        <v>0.09761443045662917</v>
+        <v>0.09564686178768766</v>
       </c>
       <c r="I588">
-        <v>0.4785897159306884</v>
+        <v>-1.049014993859359</v>
       </c>
       <c r="J588">
-        <v>4.753525710173265</v>
+        <v>4.689727932146119</v>
       </c>
       <c r="K588">
         <v>14.42</v>
@@ -31226,16 +31226,16 @@
         <v>33.35</v>
       </c>
       <c r="M588">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N588">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O588">
         <v>1</v>
       </c>
       <c r="P588" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31246,28 +31246,28 @@
         <v>95</v>
       </c>
       <c r="C589">
-        <v>-35.80910296087614</v>
+        <v>-35.19584074069848</v>
       </c>
       <c r="D589" t="s">
         <v>210</v>
       </c>
       <c r="E589">
-        <v>-36.27068124212784</v>
+        <v>-34.10344325778066</v>
       </c>
       <c r="F589">
         <v>-1</v>
       </c>
       <c r="G589">
-        <v>0.1025091029608761</v>
+        <v>0.1018958407406985</v>
       </c>
       <c r="H589">
-        <v>0.09821068124212784</v>
+        <v>0.09652344325778066</v>
       </c>
       <c r="I589">
-        <v>0.4615782812516969</v>
+        <v>-1.092397482917818</v>
       </c>
       <c r="J589">
-        <v>4.796054296870745</v>
+        <v>4.753525710173265</v>
       </c>
       <c r="K589">
         <v>14.42</v>
@@ -31276,16 +31276,16 @@
         <v>33.35</v>
       </c>
       <c r="M589">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N589">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O589">
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31296,28 +31296,28 @@
         <v>95</v>
       </c>
       <c r="C590">
-        <v>-36.44094843077246</v>
+        <v>-35.80910296087614</v>
       </c>
       <c r="D590" t="s">
         <v>210</v>
       </c>
       <c r="E590">
-        <v>-36.88499979191607</v>
+        <v>-34.68778603900403</v>
       </c>
       <c r="F590">
         <v>-1</v>
       </c>
       <c r="G590">
-        <v>0.1031409484307725</v>
+        <v>0.1025091029608761</v>
       </c>
       <c r="H590">
-        <v>0.09882499979191607</v>
+        <v>0.09710778603900402</v>
       </c>
       <c r="I590">
-        <v>0.4440513611436145</v>
+        <v>-1.121316921872108</v>
       </c>
       <c r="J590">
-        <v>4.839871597140947</v>
+        <v>4.796054296870745</v>
       </c>
       <c r="K590">
         <v>14.42</v>
@@ -31326,16 +31326,16 @@
         <v>33.35</v>
       </c>
       <c r="M590">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N590">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O590">
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31346,28 +31346,28 @@
         <v>95</v>
       </c>
       <c r="C591">
-        <v>-37.3189573041088</v>
+        <v>-36.44094843077246</v>
       </c>
       <c r="D591" t="s">
         <v>210</v>
       </c>
       <c r="E591">
-        <v>-37.7386533566994</v>
+        <v>-35.2898357447166</v>
       </c>
       <c r="F591">
         <v>-1</v>
       </c>
       <c r="G591">
-        <v>0.1040189573041088</v>
+        <v>0.1031409484307725</v>
       </c>
       <c r="H591">
-        <v>0.0996786533566994</v>
+        <v>0.0977098357447166</v>
       </c>
       <c r="I591">
-        <v>0.4196960525906022</v>
+        <v>-1.151112686055853</v>
       </c>
       <c r="J591">
-        <v>4.900759868523496</v>
+        <v>4.839871597140947</v>
       </c>
       <c r="K591">
         <v>14.42</v>
@@ -31376,16 +31376,16 @@
         <v>33.35</v>
       </c>
       <c r="M591">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N591">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O591">
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31396,28 +31396,28 @@
         <v>95</v>
       </c>
       <c r="C592">
-        <v>-38.19877324537612</v>
+        <v>-37.3189573041088</v>
       </c>
       <c r="D592" t="s">
         <v>210</v>
       </c>
       <c r="E592">
-        <v>-38.59406386270271</v>
+        <v>-36.12644059351283</v>
       </c>
       <c r="F592">
         <v>-1</v>
       </c>
       <c r="G592">
-        <v>0.1048987732453761</v>
+        <v>0.1040189573041088</v>
       </c>
       <c r="H592">
-        <v>0.1005340638627027</v>
+        <v>0.09854644059351285</v>
       </c>
       <c r="I592">
-        <v>0.3952906173265873</v>
+        <v>-1.192516710595967</v>
       </c>
       <c r="J592">
-        <v>4.961773456683503</v>
+        <v>4.900759868523496</v>
       </c>
       <c r="K592">
         <v>14.42</v>
@@ -31426,16 +31426,16 @@
         <v>33.35</v>
       </c>
       <c r="M592">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N592">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O592">
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31446,28 +31446,28 @@
         <v>95</v>
       </c>
       <c r="C593">
-        <v>-39.52303505458648</v>
+        <v>-38.19877324537612</v>
       </c>
       <c r="D593" t="s">
         <v>210</v>
       </c>
       <c r="E593">
-        <v>-39.88159164114441</v>
+        <v>-36.96476729483134</v>
       </c>
       <c r="F593">
         <v>-1</v>
       </c>
       <c r="G593">
-        <v>0.1062230350545865</v>
+        <v>0.1048987732453761</v>
       </c>
       <c r="H593">
-        <v>0.1018215916411444</v>
+        <v>0.09938476729483134</v>
       </c>
       <c r="I593">
-        <v>0.3585565865579312</v>
+        <v>-1.234005950544784</v>
       </c>
       <c r="J593">
-        <v>5.053608533605165</v>
+        <v>4.961773456683503</v>
       </c>
       <c r="K593">
         <v>14.42</v>
@@ -31476,16 +31476,16 @@
         <v>33.35</v>
       </c>
       <c r="M593">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N593">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O593">
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -31496,28 +31496,28 @@
         <v>95</v>
       </c>
       <c r="C594">
-        <v>-40.910349215812</v>
+        <v>-39.52303505458648</v>
       </c>
       <c r="D594" t="s">
         <v>210</v>
       </c>
       <c r="E594">
-        <v>-41.23042274658003</v>
+        <v>-38.22658125173496</v>
       </c>
       <c r="F594">
         <v>-1</v>
       </c>
       <c r="G594">
-        <v>0.107610349215812</v>
+        <v>0.1062230350545865</v>
       </c>
       <c r="H594">
-        <v>0.10317042274658</v>
+        <v>0.100646581251735</v>
       </c>
       <c r="I594">
-        <v>0.3200735307680347</v>
+        <v>-1.296453802851516</v>
       </c>
       <c r="J594">
-        <v>5.149816173079889</v>
+        <v>5.053608533605165</v>
       </c>
       <c r="K594">
         <v>14.42</v>
@@ -31526,16 +31526,16 @@
         <v>33.35</v>
       </c>
       <c r="M594">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N594">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O594">
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -31546,28 +31546,28 @@
         <v>95</v>
       </c>
       <c r="C595">
-        <v>-41.45354878247471</v>
+        <v>-40.910349215812</v>
       </c>
       <c r="D595" t="s">
         <v>210</v>
       </c>
       <c r="E595">
-        <v>-41.75855436409815</v>
+        <v>-39.54847421811767</v>
       </c>
       <c r="F595">
         <v>-1</v>
       </c>
       <c r="G595">
-        <v>0.1081535487824747</v>
+        <v>0.107610349215812</v>
       </c>
       <c r="H595">
-        <v>0.1036985543640981</v>
+        <v>0.1019684742181177</v>
       </c>
       <c r="I595">
-        <v>0.3050055816234405</v>
+        <v>-1.361874997694329</v>
       </c>
       <c r="J595">
-        <v>5.18748604594138</v>
+        <v>5.149816173079889</v>
       </c>
       <c r="K595">
         <v>14.42</v>
@@ -31576,16 +31576,16 @@
         <v>33.35</v>
       </c>
       <c r="M595">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N595">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O595">
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -31596,28 +31596,28 @@
         <v>95</v>
       </c>
       <c r="C596">
-        <v>-42.51149372847758</v>
+        <v>-41.45354878247471</v>
       </c>
       <c r="D596" t="s">
         <v>210</v>
       </c>
       <c r="E596">
-        <v>-42.78715270965712</v>
+        <v>-40.06605827123456</v>
       </c>
       <c r="F596">
         <v>-1</v>
       </c>
       <c r="G596">
-        <v>0.1092114937284776</v>
+        <v>0.1081535487824747</v>
       </c>
       <c r="H596">
-        <v>0.1047271527096571</v>
+        <v>0.1024860582712346</v>
       </c>
       <c r="I596">
-        <v>0.2756589811795394</v>
+        <v>-1.387490511240145</v>
       </c>
       <c r="J596">
-        <v>5.26085254705115</v>
+        <v>5.18748604594138</v>
       </c>
       <c r="K596">
         <v>14.42</v>
@@ -31626,16 +31626,16 @@
         <v>33.35</v>
       </c>
       <c r="M596">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N596">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O596">
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -31646,28 +31646,28 @@
         <v>95</v>
       </c>
       <c r="C597">
-        <v>-43.90697105206028</v>
+        <v>-42.51149372847758</v>
       </c>
       <c r="D597" t="s">
         <v>210</v>
       </c>
       <c r="E597">
-        <v>-44.14392053744002</v>
+        <v>-41.0741139964828</v>
       </c>
       <c r="F597">
         <v>-1</v>
       </c>
       <c r="G597">
-        <v>0.1106069710520603</v>
+        <v>0.1092114937284776</v>
       </c>
       <c r="H597">
-        <v>0.10608392053744</v>
+        <v>0.1034941139964828</v>
       </c>
       <c r="I597">
-        <v>0.2369494853797462</v>
+        <v>-1.437379731994781</v>
       </c>
       <c r="J597">
-        <v>5.357626286550643</v>
+        <v>5.26085254705115</v>
       </c>
       <c r="K597">
         <v>14.42</v>
@@ -31676,16 +31676,16 @@
         <v>33.35</v>
       </c>
       <c r="M597">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N597">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O597">
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -31696,28 +31696,28 @@
         <v>95</v>
       </c>
       <c r="C598">
-        <v>-44.90163738064269</v>
+        <v>-43.90697105206028</v>
       </c>
       <c r="D598" t="s">
         <v>210</v>
       </c>
       <c r="E598">
-        <v>-45.11099556703263</v>
+        <v>-42.40378517720584</v>
       </c>
       <c r="F598">
         <v>-1</v>
       </c>
       <c r="G598">
-        <v>0.1116016373806427</v>
+        <v>0.1106069710520603</v>
       </c>
       <c r="H598">
-        <v>0.1070509955670326</v>
+        <v>0.1048237851772058</v>
       </c>
       <c r="I598">
-        <v>0.2093581863899416</v>
+        <v>-1.503185874854438</v>
       </c>
       <c r="J598">
-        <v>5.426604534025152</v>
+        <v>5.357626286550643</v>
       </c>
       <c r="K598">
         <v>14.42</v>
@@ -31726,16 +31726,16 @@
         <v>33.35</v>
       </c>
       <c r="M598">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N598">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O598">
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -31746,28 +31746,28 @@
         <v>95</v>
       </c>
       <c r="C599">
-        <v>-44.87859383409505</v>
+        <v>-44.90163738064269</v>
       </c>
       <c r="D599" t="s">
         <v>210</v>
       </c>
       <c r="E599">
-        <v>-45.08859123120753</v>
+        <v>-43.3515462975056</v>
       </c>
       <c r="F599">
         <v>-1</v>
       </c>
       <c r="G599">
-        <v>0.111578593834095</v>
+        <v>0.1116016373806427</v>
       </c>
       <c r="H599">
-        <v>0.1070285912312075</v>
+        <v>0.1057715462975056</v>
       </c>
       <c r="I599">
-        <v>0.2099973971124811</v>
+        <v>-1.55009108313709</v>
       </c>
       <c r="J599">
-        <v>5.425006507218797</v>
+        <v>5.426604534025152</v>
       </c>
       <c r="K599">
         <v>14.42</v>
@@ -31776,16 +31776,16 @@
         <v>33.35</v>
       </c>
       <c r="M599">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N599">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O599">
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -31796,28 +31796,28 @@
         <v>95</v>
       </c>
       <c r="C600">
-        <v>-44.71287471108158</v>
+        <v>-44.87859383409505</v>
       </c>
       <c r="D600" t="s">
         <v>210</v>
       </c>
       <c r="E600">
-        <v>-44.9274690325495</v>
+        <v>-43.32958940918626</v>
       </c>
       <c r="F600">
         <v>-1</v>
       </c>
       <c r="G600">
-        <v>0.1114128747110816</v>
+        <v>0.111578593834095</v>
       </c>
       <c r="H600">
-        <v>0.1068674690325495</v>
+        <v>0.1057495894091863</v>
       </c>
       <c r="I600">
-        <v>0.2145943214679207</v>
+        <v>-1.549004424908787</v>
       </c>
       <c r="J600">
-        <v>5.413514196330206</v>
+        <v>5.425006507218797</v>
       </c>
       <c r="K600">
         <v>14.42</v>
@@ -31826,16 +31826,16 @@
         <v>33.35</v>
       </c>
       <c r="M600">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N600">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O600">
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -31846,28 +31846,28 @@
         <v>95</v>
       </c>
       <c r="C601">
-        <v>-44.28422459219478</v>
+        <v>-44.71287471108158</v>
       </c>
       <c r="D601" t="s">
         <v>210</v>
       </c>
       <c r="E601">
-        <v>-44.51070934691893</v>
+        <v>-43.17168505757704</v>
       </c>
       <c r="F601">
         <v>-1</v>
       </c>
       <c r="G601">
-        <v>0.1109842245921948</v>
+        <v>0.1114128747110816</v>
       </c>
       <c r="H601">
-        <v>0.1064507093469189</v>
+        <v>0.1055916850575771</v>
       </c>
       <c r="I601">
-        <v>0.2264847547241473</v>
+        <v>-1.541189653504532</v>
       </c>
       <c r="J601">
-        <v>5.383788113189652</v>
+        <v>5.413514196330206</v>
       </c>
       <c r="K601">
         <v>14.42</v>
@@ -31876,16 +31876,16 @@
         <v>33.35</v>
       </c>
       <c r="M601">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N601">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O601">
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -31893,49 +31893,49 @@
         <v>0</v>
       </c>
       <c r="B602" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C602">
-        <v>-44.07408423890544</v>
+        <v>-42.39233053559997</v>
       </c>
       <c r="D602" t="s">
         <v>210</v>
       </c>
       <c r="E602">
-        <v>-44.30639812964316</v>
+        <v>-42.76324867522582</v>
       </c>
       <c r="F602">
         <v>-1</v>
       </c>
       <c r="G602">
-        <v>0.1107740842389054</v>
+        <v>0.1074923305356</v>
       </c>
       <c r="H602">
-        <v>0.1062463981296432</v>
+        <v>0.1051832486752258</v>
       </c>
       <c r="I602">
-        <v>0.2323138907377214</v>
+        <v>0.3709181396258501</v>
       </c>
       <c r="J602">
-        <v>5.369215273155717</v>
+        <v>5.383788113189652</v>
       </c>
       <c r="K602">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L602">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M602">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N602">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O602">
         <v>1</v>
       </c>
       <c r="P602" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="603" spans="1:16">
@@ -31943,49 +31943,49 @@
         <v>0</v>
       </c>
       <c r="B603" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C603">
-        <v>-43.38239560225713</v>
+        <v>-42.18947660232759</v>
       </c>
       <c r="D603" t="s">
         <v>210</v>
       </c>
       <c r="E603">
-        <v>-43.63389641772849</v>
+        <v>-42.56301785315956</v>
       </c>
       <c r="F603">
         <v>-1</v>
       </c>
       <c r="G603">
-        <v>0.1100823956022571</v>
+        <v>0.1072894766023276</v>
       </c>
       <c r="H603">
-        <v>0.1055738964177285</v>
+        <v>0.1049830178531596</v>
       </c>
       <c r="I603">
-        <v>0.2515008154713669</v>
+        <v>0.3735412508319698</v>
       </c>
       <c r="J603">
-        <v>5.321247961321576</v>
+        <v>5.369215273155717</v>
       </c>
       <c r="K603">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L603">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M603">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N603">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O603">
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -31993,49 +31993,49 @@
         <v>0</v>
       </c>
       <c r="B604" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C604">
-        <v>-43.81661198492538</v>
+        <v>-41.52177162159634</v>
       </c>
       <c r="D604" t="s">
         <v>210</v>
       </c>
       <c r="E604">
-        <v>-44.05606796315215</v>
+        <v>-41.90394698855845</v>
       </c>
       <c r="F604">
         <v>-1</v>
       </c>
       <c r="G604">
-        <v>0.1105166119849254</v>
+        <v>0.1066217716215963</v>
       </c>
       <c r="H604">
-        <v>0.1059960679631521</v>
+        <v>0.1043239469885584</v>
       </c>
       <c r="I604">
-        <v>0.2394559782267649</v>
+        <v>0.3821753669621089</v>
       </c>
       <c r="J604">
-        <v>5.351360054433106</v>
+        <v>5.321247961321576</v>
       </c>
       <c r="K604">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L604">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M604">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N604">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O604">
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -32043,49 +32043,49 @@
         <v>0</v>
       </c>
       <c r="B605" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C605">
-        <v>-46.36664052502002</v>
+        <v>-41.94093195770883</v>
       </c>
       <c r="D605" t="s">
         <v>210</v>
       </c>
       <c r="E605">
-        <v>-46.53536062141336</v>
+        <v>-42.31768714791087</v>
       </c>
       <c r="F605">
         <v>-1</v>
       </c>
       <c r="G605">
-        <v>0.11306664052502</v>
+        <v>0.1070409319577088</v>
       </c>
       <c r="H605">
-        <v>0.1084753606214134</v>
+        <v>0.1047376871479109</v>
       </c>
       <c r="I605">
-        <v>0.1687200963933364</v>
+        <v>0.3767551902020401</v>
       </c>
       <c r="J605">
-        <v>5.528199759016645</v>
+        <v>5.351360054433106</v>
       </c>
       <c r="K605">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L605">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M605">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N605">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O605">
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -32093,49 +32093,49 @@
         <v>0</v>
       </c>
       <c r="B606" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C606">
-        <v>-45.67509189715133</v>
+        <v>-44.40254064551171</v>
       </c>
       <c r="D606" t="s">
         <v>210</v>
       </c>
       <c r="E606">
-        <v>-45.86299503453964</v>
+        <v>-44.74746468888871</v>
       </c>
       <c r="F606">
         <v>-1</v>
       </c>
       <c r="G606">
-        <v>0.1123750918971513</v>
+        <v>0.1095025406455117</v>
       </c>
       <c r="H606">
-        <v>0.1078029950345396</v>
+        <v>0.1071674646888887</v>
       </c>
       <c r="I606">
-        <v>0.1879031373883109</v>
+        <v>0.3449240433769987</v>
       </c>
       <c r="J606">
-        <v>5.480242156529219</v>
+        <v>5.528199759016645</v>
       </c>
       <c r="K606">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L606">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M606">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N606">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O606">
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32143,49 +32143,49 @@
         <v>0</v>
       </c>
       <c r="B607" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C607">
-        <v>-45.59657110148753</v>
+        <v>-43.73497081888672</v>
       </c>
       <c r="D607" t="s">
         <v>210</v>
       </c>
       <c r="E607">
-        <v>-45.78665234693864</v>
+        <v>-44.08852723071146</v>
       </c>
       <c r="F607">
         <v>-1</v>
       </c>
       <c r="G607">
-        <v>0.1122965711014875</v>
+        <v>0.1088349708188867</v>
       </c>
       <c r="H607">
-        <v>0.1077266523469386</v>
+        <v>0.1065085272307115</v>
       </c>
       <c r="I607">
-        <v>0.1900812454511041</v>
+        <v>0.3535564118247336</v>
       </c>
       <c r="J607">
-        <v>5.474796886372228</v>
+        <v>5.480242156529219</v>
       </c>
       <c r="K607">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L607">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M607">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N607">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O607">
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32193,49 +32193,49 @@
         <v>0</v>
       </c>
       <c r="B608" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C608">
-        <v>-45.88531731582511</v>
+        <v>-43.65917265830143</v>
       </c>
       <c r="D608" t="s">
         <v>210</v>
       </c>
       <c r="E608">
-        <v>-46.0673889575498</v>
+        <v>-44.01370921875442</v>
       </c>
       <c r="F608">
         <v>-1</v>
       </c>
       <c r="G608">
-        <v>0.1125853173158251</v>
+        <v>0.1087591726583014</v>
       </c>
       <c r="H608">
-        <v>0.1080073889575498</v>
+        <v>0.1064337092187544</v>
       </c>
       <c r="I608">
-        <v>0.1820716417246828</v>
+        <v>0.354536560452992</v>
       </c>
       <c r="J608">
-        <v>5.494820895688288</v>
+        <v>5.474796886372228</v>
       </c>
       <c r="K608">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L608">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M608">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N608">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O608">
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32243,49 +32243,49 @@
         <v>0</v>
       </c>
       <c r="B609" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C609">
-        <v>-45.72068594776368</v>
+        <v>-43.93790686798097</v>
       </c>
       <c r="D609" t="s">
         <v>210</v>
       </c>
       <c r="E609">
-        <v>-45.90732434033612</v>
+        <v>-44.28883910675707</v>
       </c>
       <c r="F609">
         <v>-1</v>
       </c>
       <c r="G609">
-        <v>0.1124206859477637</v>
+        <v>0.109037906867981</v>
       </c>
       <c r="H609">
-        <v>0.1078473243403361</v>
+        <v>0.1067088391067571</v>
       </c>
       <c r="I609">
-        <v>0.1866383925724406</v>
+        <v>0.3509322387761031</v>
       </c>
       <c r="J609">
-        <v>5.48340401856891</v>
+        <v>5.494820895688288</v>
       </c>
       <c r="K609">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L609">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M609">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N609">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O609">
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32293,49 +32293,49 @@
         <v>0</v>
       </c>
       <c r="B610" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C610">
-        <v>-45.36182199433568</v>
+        <v>-43.77898393847923</v>
       </c>
       <c r="D610" t="s">
         <v>210</v>
       </c>
       <c r="E610">
-        <v>-45.55841500420155</v>
+        <v>-44.13197121513682</v>
       </c>
       <c r="F610">
         <v>-1</v>
       </c>
       <c r="G610">
-        <v>0.1120618219943357</v>
+        <v>0.1088789839384792</v>
       </c>
       <c r="H610">
-        <v>0.1074984150042016</v>
+        <v>0.1065519712151368</v>
       </c>
       <c r="I610">
-        <v>0.1965930098658717</v>
+        <v>0.3529872766575934</v>
       </c>
       <c r="J610">
-        <v>5.458517475335346</v>
+        <v>5.48340401856891</v>
       </c>
       <c r="K610">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L610">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M610">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N610">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O610">
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32343,49 +32343,49 @@
         <v>0</v>
       </c>
       <c r="B611" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C611">
-        <v>-44.32923008535921</v>
+        <v>-43.43256325666802</v>
       </c>
       <c r="D611" t="s">
         <v>210</v>
       </c>
       <c r="E611">
-        <v>-44.55446642141027</v>
+        <v>-43.79003011110765</v>
       </c>
       <c r="F611">
         <v>-1</v>
       </c>
       <c r="G611">
-        <v>0.1110292300853592</v>
+        <v>0.108532563256668</v>
       </c>
       <c r="H611">
-        <v>0.1064944664214103</v>
+        <v>0.1062100301111076</v>
       </c>
       <c r="I611">
-        <v>0.2252363360510614</v>
+        <v>0.3574668544396289</v>
       </c>
       <c r="J611">
-        <v>5.386909159872345</v>
+        <v>5.458517475335346</v>
       </c>
       <c r="K611">
-        <v>14.42</v>
+        <v>13.92</v>
       </c>
       <c r="L611">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="M611">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N611">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O611">
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32396,28 +32396,28 @@
         <v>96</v>
       </c>
       <c r="C612">
-        <v>-41.34455561329743</v>
+        <v>-42.43577550542304</v>
       </c>
       <c r="D612" t="s">
         <v>210</v>
       </c>
       <c r="E612">
-        <v>-43.45540730592168</v>
+        <v>-42.80613185664603</v>
       </c>
       <c r="F612">
         <v>-1</v>
       </c>
       <c r="G612">
-        <v>0.1064445556132974</v>
+        <v>0.107535775505423</v>
       </c>
       <c r="H612">
-        <v>0.1053954073059217</v>
+        <v>0.105226131856646</v>
       </c>
       <c r="I612">
-        <v>2.110851692624252</v>
+        <v>0.3703563512229877</v>
       </c>
       <c r="J612">
-        <v>5.308516926242631</v>
+        <v>5.386909159872345</v>
       </c>
       <c r="K612">
         <v>13.92</v>
@@ -32426,16 +32426,16 @@
         <v>32.55</v>
       </c>
       <c r="M612">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N612">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O612">
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32446,28 +32446,28 @@
         <v>96</v>
       </c>
       <c r="C613">
-        <v>-40.31789986066552</v>
+        <v>-41.34455561329743</v>
       </c>
       <c r="D613" t="s">
         <v>210</v>
       </c>
       <c r="E613">
-        <v>-42.421376152768</v>
+        <v>-41.72902256657375</v>
       </c>
       <c r="F613">
         <v>-1</v>
       </c>
       <c r="G613">
-        <v>0.1054178998606655</v>
+        <v>0.1064445556132974</v>
       </c>
       <c r="H613">
-        <v>0.104361376152768</v>
+        <v>0.1041490225665738</v>
       </c>
       <c r="I613">
-        <v>2.103476292102485</v>
+        <v>0.3844669532763234</v>
       </c>
       <c r="J613">
-        <v>5.234762921024822</v>
+        <v>5.308516926242631</v>
       </c>
       <c r="K613">
         <v>13.92</v>
@@ -32476,16 +32476,16 @@
         <v>32.55</v>
       </c>
       <c r="M613">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N613">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O613">
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32496,28 +32496,28 @@
         <v>96</v>
       </c>
       <c r="C614">
-        <v>-39.32008102494169</v>
+        <v>-40.31789986066552</v>
       </c>
       <c r="D614" t="s">
         <v>210</v>
       </c>
       <c r="E614">
-        <v>-41.41638907828178</v>
+        <v>-40.71564253488105</v>
       </c>
       <c r="F614">
         <v>-1</v>
       </c>
       <c r="G614">
-        <v>0.1044200810249417</v>
+        <v>0.1054178998606655</v>
       </c>
       <c r="H614">
-        <v>0.1033563890782818</v>
+        <v>0.103135642534881</v>
       </c>
       <c r="I614">
-        <v>2.096308053340096</v>
+        <v>0.3977426742155288</v>
       </c>
       <c r="J614">
-        <v>5.163080533400983</v>
+        <v>5.234762921024822</v>
       </c>
       <c r="K614">
         <v>13.92</v>
@@ -32526,16 +32526,16 @@
         <v>32.55</v>
       </c>
       <c r="M614">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N614">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O614">
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32546,28 +32546,28 @@
         <v>96</v>
       </c>
       <c r="C615">
-        <v>-38.74064599834425</v>
+        <v>-39.32008102494169</v>
       </c>
       <c r="D615" t="s">
         <v>210</v>
       </c>
       <c r="E615">
-        <v>-40.83279144373465</v>
+        <v>-39.7307265289295</v>
       </c>
       <c r="F615">
         <v>-1</v>
       </c>
       <c r="G615">
-        <v>0.1038406459983442</v>
+        <v>0.1044200810249417</v>
       </c>
       <c r="H615">
-        <v>0.1027727914437346</v>
+        <v>0.1021507265289295</v>
       </c>
       <c r="I615">
-        <v>2.0921454453904</v>
+        <v>0.4106455039878156</v>
       </c>
       <c r="J615">
-        <v>5.121454453904041</v>
+        <v>5.163080533400983</v>
       </c>
       <c r="K615">
         <v>13.92</v>
@@ -32576,16 +32576,16 @@
         <v>32.55</v>
       </c>
       <c r="M615">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N615">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O615">
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32596,28 +32596,28 @@
         <v>96</v>
       </c>
       <c r="C616">
-        <v>-38.15849325664446</v>
+        <v>-38.74064599834425</v>
       </c>
       <c r="D616" t="s">
         <v>210</v>
       </c>
       <c r="E616">
-        <v>-40.24645657026977</v>
+        <v>-39.15878419664151</v>
       </c>
       <c r="F616">
         <v>-1</v>
       </c>
       <c r="G616">
-        <v>0.1032584932566445</v>
+        <v>0.1038406459983442</v>
       </c>
       <c r="H616">
-        <v>0.1021864565702698</v>
+        <v>0.1015787841966415</v>
       </c>
       <c r="I616">
-        <v>2.087963313625309</v>
+        <v>0.4181381982972638</v>
       </c>
       <c r="J616">
-        <v>5.079633136253194</v>
+        <v>5.121454453904041</v>
       </c>
       <c r="K616">
         <v>13.92</v>
@@ -32626,16 +32626,16 @@
         <v>32.55</v>
       </c>
       <c r="M616">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N616">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O616">
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32646,28 +32646,28 @@
         <v>96</v>
       </c>
       <c r="C617">
-        <v>-37.85330666541265</v>
+        <v>-38.15849325664446</v>
       </c>
       <c r="D617" t="s">
         <v>210</v>
       </c>
       <c r="E617">
-        <v>-39.93907754662968</v>
+        <v>-38.58415929211889</v>
       </c>
       <c r="F617">
         <v>-1</v>
       </c>
       <c r="G617">
-        <v>0.1029533066654126</v>
+        <v>0.1032584932566445</v>
       </c>
       <c r="H617">
-        <v>0.1018790775466297</v>
+        <v>0.1010041592921189</v>
       </c>
       <c r="I617">
-        <v>2.08577088121703</v>
+        <v>0.4256660354744284</v>
       </c>
       <c r="J617">
-        <v>5.057708812170448</v>
+        <v>5.079633136253194</v>
       </c>
       <c r="K617">
         <v>13.92</v>
@@ -32676,16 +32676,16 @@
         <v>32.55</v>
       </c>
       <c r="M617">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N617">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O617">
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32696,28 +32696,28 @@
         <v>96</v>
       </c>
       <c r="C618">
-        <v>-36.95873010258727</v>
+        <v>-37.85330666541265</v>
       </c>
       <c r="D618" t="s">
         <v>210</v>
       </c>
       <c r="E618">
-        <v>-39.03807442803689</v>
+        <v>-38.28291907922196</v>
       </c>
       <c r="F618">
         <v>-1</v>
       </c>
       <c r="G618">
-        <v>0.1020587301025873</v>
+        <v>0.1029533066654126</v>
       </c>
       <c r="H618">
-        <v>0.1009780744280369</v>
+        <v>0.100702919079222</v>
       </c>
       <c r="I618">
-        <v>2.079344325449625</v>
+        <v>0.4296124138093163</v>
       </c>
       <c r="J618">
-        <v>4.993443254496212</v>
+        <v>5.057708812170448</v>
       </c>
       <c r="K618">
         <v>13.92</v>
@@ -32726,16 +32726,16 @@
         <v>32.55</v>
       </c>
       <c r="M618">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N618">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O618">
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32746,28 +32746,28 @@
         <v>96</v>
       </c>
       <c r="C619">
-        <v>-36.10710267921836</v>
+        <v>-36.95873010258727</v>
       </c>
       <c r="D619" t="s">
         <v>210</v>
       </c>
       <c r="E619">
-        <v>-38.18032899156906</v>
+        <v>-37.39991031677796</v>
       </c>
       <c r="F619">
         <v>-1</v>
       </c>
       <c r="G619">
-        <v>0.1012071026792184</v>
+        <v>0.1020587301025873</v>
       </c>
       <c r="H619">
-        <v>0.1001203289915691</v>
+        <v>0.09981991031677796</v>
       </c>
       <c r="I619">
-        <v>2.073226312350698</v>
+        <v>0.4411802141906875</v>
       </c>
       <c r="J619">
-        <v>4.932263123507066</v>
+        <v>4.993443254496212</v>
       </c>
       <c r="K619">
         <v>13.92</v>
@@ -32776,16 +32776,16 @@
         <v>32.55</v>
       </c>
       <c r="M619">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N619">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O619">
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32796,28 +32796,28 @@
         <v>96</v>
       </c>
       <c r="C620">
-        <v>-35.15090084311086</v>
+        <v>-36.10710267921836</v>
       </c>
       <c r="D620" t="s">
         <v>210</v>
       </c>
       <c r="E620">
-        <v>-37.21725788939759</v>
+        <v>-36.55929531698708</v>
       </c>
       <c r="F620">
         <v>-1</v>
       </c>
       <c r="G620">
-        <v>0.1002509008431109</v>
+        <v>0.1012071026792184</v>
       </c>
       <c r="H620">
-        <v>0.09915725788939758</v>
+        <v>0.09897929531698708</v>
       </c>
       <c r="I620">
-        <v>2.066357046286726</v>
+        <v>0.4521926377687251</v>
       </c>
       <c r="J620">
-        <v>4.86357046286716</v>
+        <v>4.932263123507066</v>
       </c>
       <c r="K620">
         <v>13.92</v>
@@ -32826,16 +32826,16 @@
         <v>32.55</v>
       </c>
       <c r="M620">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N620">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O620">
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32846,28 +32846,28 @@
         <v>96</v>
       </c>
       <c r="C621">
-        <v>-34.31738055650594</v>
+        <v>-35.15090084311086</v>
       </c>
       <c r="D621" t="s">
         <v>210</v>
       </c>
       <c r="E621">
-        <v>-36.37774966969923</v>
+        <v>-35.61545815979478</v>
       </c>
       <c r="F621">
         <v>-1</v>
       </c>
       <c r="G621">
-        <v>0.09941738055650594</v>
+        <v>0.1002509008431109</v>
       </c>
       <c r="H621">
-        <v>0.09831774966969922</v>
+        <v>0.09803545815979479</v>
       </c>
       <c r="I621">
-        <v>2.060369113193289</v>
+        <v>0.4645573166839156</v>
       </c>
       <c r="J621">
-        <v>4.803691131932898</v>
+        <v>4.86357046286716</v>
       </c>
       <c r="K621">
         <v>13.92</v>
@@ -32876,16 +32876,16 @@
         <v>32.55</v>
       </c>
       <c r="M621">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N621">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O621">
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32896,28 +32896,28 @@
         <v>96</v>
       </c>
       <c r="C622">
-        <v>-33.38399029521365</v>
+        <v>-34.31738055650594</v>
       </c>
       <c r="D622" t="s">
         <v>210</v>
       </c>
       <c r="E622">
-        <v>-35.43765401859881</v>
+        <v>-34.79271615275803</v>
       </c>
       <c r="F622">
         <v>-1</v>
       </c>
       <c r="G622">
-        <v>0.09848399029521365</v>
+        <v>0.09941738055650594</v>
       </c>
       <c r="H622">
-        <v>0.09737765401859881</v>
+        <v>0.09721271615275802</v>
       </c>
       <c r="I622">
-        <v>2.053663723385156</v>
+        <v>0.4753355962520871</v>
       </c>
       <c r="J622">
-        <v>4.736637233851555</v>
+        <v>4.803691131932898</v>
       </c>
       <c r="K622">
         <v>13.92</v>
@@ -32926,16 +32926,16 @@
         <v>32.55</v>
       </c>
       <c r="M622">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N622">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O622">
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32946,28 +32946,28 @@
         <v>96</v>
       </c>
       <c r="C623">
-        <v>-14.06449684926347</v>
+        <v>-33.38399029521365</v>
       </c>
       <c r="D623" t="s">
         <v>210</v>
       </c>
       <c r="E623">
-        <v>-15.97937110823806</v>
+        <v>-33.87139559312036</v>
       </c>
       <c r="F623">
         <v>-1</v>
       </c>
       <c r="G623">
-        <v>0.07916449684926347</v>
+        <v>0.09848399029521365</v>
       </c>
       <c r="H623">
-        <v>0.07791937110823807</v>
+        <v>0.09629139559312037</v>
       </c>
       <c r="I623">
-        <v>1.914874258974592</v>
+        <v>0.4874052979067116</v>
       </c>
       <c r="J623">
-        <v>3.348742589745939</v>
+        <v>4.736637233851555</v>
       </c>
       <c r="K623">
         <v>13.92</v>
@@ -32976,15 +32976,65 @@
         <v>32.55</v>
       </c>
       <c r="M623">
-        <v>14.02</v>
+        <v>13.74</v>
       </c>
       <c r="N623">
-        <v>30.97</v>
+        <v>31.21</v>
       </c>
       <c r="O623">
         <v>1</v>
       </c>
       <c r="P623" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16">
+      <c r="A624" s="1">
+        <v>0</v>
+      </c>
+      <c r="B624" t="s">
+        <v>96</v>
+      </c>
+      <c r="C624">
+        <v>-14.06449684926347</v>
+      </c>
+      <c r="D624" t="s">
+        <v>210</v>
+      </c>
+      <c r="E624">
+        <v>-14.8017231831092</v>
+      </c>
+      <c r="F624">
+        <v>-1</v>
+      </c>
+      <c r="G624">
+        <v>0.07916449684926347</v>
+      </c>
+      <c r="H624">
+        <v>0.0772217231831092</v>
+      </c>
+      <c r="I624">
+        <v>0.737226333845733</v>
+      </c>
+      <c r="J624">
+        <v>3.348742589745939</v>
+      </c>
+      <c r="K624">
+        <v>13.92</v>
+      </c>
+      <c r="L624">
+        <v>32.55</v>
+      </c>
+      <c r="M624">
+        <v>13.74</v>
+      </c>
+      <c r="N624">
+        <v>31.21</v>
+      </c>
+      <c r="O624">
+        <v>1</v>
+      </c>
+      <c r="P624" t="s">
         <v>487</v>
       </c>
     </row>
